--- a/state_results/Rivers/UnnamedTribofWaipuatdsRatanaSTP_7e04af7e3e.xlsx
+++ b/state_results/Rivers/UnnamedTribofWaipuatdsRatanaSTP_7e04af7e3e.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U145"/>
+  <dimension ref="A1:U161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1389,10 +1389,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4.7235</v>
+        <v>4.72355</v>
       </c>
       <c r="G12" t="n">
-        <v>5.7966724137931</v>
+        <v>5.79667068965517</v>
       </c>
       <c r="H12" t="n">
         <v>16.248</v>
@@ -1403,7 +1403,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>3.387</v>
+        <v>3.38695</v>
       </c>
       <c r="M12" t="n">
         <v>9.55148</v>
@@ -1466,10 +1466,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.7235</v>
+        <v>4.72355</v>
       </c>
       <c r="G13" t="n">
-        <v>5.7966724137931</v>
+        <v>5.79667068965517</v>
       </c>
       <c r="H13" t="n">
         <v>16.248</v>
@@ -1480,7 +1480,7 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>3.387</v>
+        <v>3.38695</v>
       </c>
       <c r="M13" t="n">
         <v>9.55148</v>
@@ -2360,7 +2360,7 @@
         <v>3.46154</v>
       </c>
       <c r="G24" t="n">
-        <v>4.39671919829917</v>
+        <v>4.39684043691337</v>
       </c>
       <c r="H24" t="n">
         <v>20.8180103799047</v>
@@ -2441,7 +2441,7 @@
         <v>3.46154</v>
       </c>
       <c r="G25" t="n">
-        <v>4.39671919829917</v>
+        <v>4.39684043691337</v>
       </c>
       <c r="H25" t="n">
         <v>20.8180103799047</v>
@@ -2522,7 +2522,7 @@
         <v>0.72565</v>
       </c>
       <c r="G26" t="n">
-        <v>0.788279995431022</v>
+        <v>0.788226562319772</v>
       </c>
       <c r="H26" t="n">
         <v>4.72</v>
@@ -2603,7 +2603,7 @@
         <v>0.72565</v>
       </c>
       <c r="G27" t="n">
-        <v>0.788279995431022</v>
+        <v>0.788226562319772</v>
       </c>
       <c r="H27" t="n">
         <v>4.72</v>
@@ -2680,7 +2680,7 @@
         <v>4.4675</v>
       </c>
       <c r="G28" t="n">
-        <v>5.54204716245207</v>
+        <v>5.54195550679922</v>
       </c>
       <c r="H28" t="n">
         <v>16.248</v>
@@ -2757,7 +2757,7 @@
         <v>4.4675</v>
       </c>
       <c r="G29" t="n">
-        <v>5.54204716245207</v>
+        <v>5.54195550679922</v>
       </c>
       <c r="H29" t="n">
         <v>16.248</v>
@@ -3648,7 +3648,7 @@
         <v>3.96083</v>
       </c>
       <c r="G40" t="n">
-        <v>4.8632241410029</v>
+        <v>4.86334335897353</v>
       </c>
       <c r="H40" t="n">
         <v>27.25</v>
@@ -3729,7 +3729,7 @@
         <v>3.96083</v>
       </c>
       <c r="G41" t="n">
-        <v>4.8632241410029</v>
+        <v>4.86334335897353</v>
       </c>
       <c r="H41" t="n">
         <v>27.25</v>
@@ -3810,7 +3810,7 @@
         <v>0.7851</v>
       </c>
       <c r="G42" t="n">
-        <v>0.765029995431022</v>
+        <v>0.764976562319772</v>
       </c>
       <c r="H42" t="n">
         <v>2.2</v>
@@ -3891,7 +3891,7 @@
         <v>0.7851</v>
       </c>
       <c r="G43" t="n">
-        <v>0.765029995431022</v>
+        <v>0.764976562319772</v>
       </c>
       <c r="H43" t="n">
         <v>2.2</v>
@@ -3968,10 +3968,10 @@
         <v>4.25</v>
       </c>
       <c r="G44" t="n">
-        <v>5.02196382911874</v>
+        <v>5.02187217346589</v>
       </c>
       <c r="H44" t="n">
-        <v>15.749</v>
+        <v>15.7491</v>
       </c>
       <c r="I44" t="n">
         <v>14.365</v>
@@ -3979,10 +3979,10 @@
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>2.48</v>
+        <v>2.4798</v>
       </c>
       <c r="M44" t="n">
-        <v>7.7093</v>
+        <v>7.70927</v>
       </c>
       <c r="N44" t="n">
         <v>13.8158</v>
@@ -4045,10 +4045,10 @@
         <v>4.25</v>
       </c>
       <c r="G45" t="n">
-        <v>5.02196382911874</v>
+        <v>5.02187217346589</v>
       </c>
       <c r="H45" t="n">
-        <v>15.749</v>
+        <v>15.7491</v>
       </c>
       <c r="I45" t="n">
         <v>14.365</v>
@@ -4056,10 +4056,10 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>2.48</v>
+        <v>2.4798</v>
       </c>
       <c r="M45" t="n">
-        <v>7.7093</v>
+        <v>7.70927</v>
       </c>
       <c r="N45" t="n">
         <v>13.8158</v>
@@ -4936,7 +4936,7 @@
         <v>3.23388</v>
       </c>
       <c r="G56" t="n">
-        <v>4.52326113865922</v>
+        <v>4.52352785978244</v>
       </c>
       <c r="H56" t="n">
         <v>27.25</v>
@@ -5017,7 +5017,7 @@
         <v>3.23388</v>
       </c>
       <c r="G57" t="n">
-        <v>4.52326113865922</v>
+        <v>4.52352785978244</v>
       </c>
       <c r="H57" t="n">
         <v>27.25</v>
@@ -5098,7 +5098,7 @@
         <v>0.7467</v>
       </c>
       <c r="G58" t="n">
-        <v>0.740646662097688</v>
+        <v>0.740593228986438</v>
       </c>
       <c r="H58" t="n">
         <v>2.81</v>
@@ -5179,7 +5179,7 @@
         <v>0.7467</v>
       </c>
       <c r="G59" t="n">
-        <v>0.740646662097688</v>
+        <v>0.740593228986438</v>
       </c>
       <c r="H59" t="n">
         <v>2.81</v>
@@ -5253,10 +5253,10 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>3.242</v>
+        <v>3.24195</v>
       </c>
       <c r="G60" t="n">
-        <v>4.17246382911874</v>
+        <v>4.17237217346589</v>
       </c>
       <c r="H60" t="n">
         <v>16.17</v>
@@ -5267,13 +5267,13 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
-        <v>2.48</v>
+        <v>2.4798</v>
       </c>
       <c r="M60" t="n">
-        <v>6.6382</v>
+        <v>6.63813</v>
       </c>
       <c r="N60" t="n">
-        <v>8.7033</v>
+        <v>8.70327</v>
       </c>
       <c r="O60" t="n">
         <v>1784937.706</v>
@@ -5330,10 +5330,10 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>3.242</v>
+        <v>3.24195</v>
       </c>
       <c r="G61" t="n">
-        <v>4.17246382911874</v>
+        <v>4.17237217346589</v>
       </c>
       <c r="H61" t="n">
         <v>16.17</v>
@@ -5344,13 +5344,13 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
-        <v>2.48</v>
+        <v>2.4798</v>
       </c>
       <c r="M61" t="n">
-        <v>6.6382</v>
+        <v>6.63813</v>
       </c>
       <c r="N61" t="n">
-        <v>8.7033</v>
+        <v>8.70327</v>
       </c>
       <c r="O61" t="n">
         <v>1784937.706</v>
@@ -5884,13 +5884,13 @@
         <v>763</v>
       </c>
       <c r="G68" t="n">
-        <v>2745.89189470325</v>
+        <v>2537.47217943343</v>
       </c>
       <c r="H68" t="n">
         <v>34000</v>
       </c>
       <c r="I68" t="n">
-        <v>19500</v>
+        <v>14008.66538</v>
       </c>
       <c r="J68" t="n">
         <v>58.3333333333333</v>
@@ -5969,13 +5969,13 @@
         <v>763</v>
       </c>
       <c r="G69" t="n">
-        <v>2745.89189470325</v>
+        <v>2537.47217943343</v>
       </c>
       <c r="H69" t="n">
         <v>34000</v>
       </c>
       <c r="I69" t="n">
-        <v>19500</v>
+        <v>14008.66538</v>
       </c>
       <c r="J69" t="n">
         <v>58.3333333333333</v>
@@ -6054,13 +6054,13 @@
         <v>763</v>
       </c>
       <c r="G70" t="n">
-        <v>2745.89189470325</v>
+        <v>2537.47217943343</v>
       </c>
       <c r="H70" t="n">
         <v>34000</v>
       </c>
       <c r="I70" t="n">
-        <v>19500</v>
+        <v>14008.66538</v>
       </c>
       <c r="J70" t="n">
         <v>58.3333333333333</v>
@@ -6139,13 +6139,13 @@
         <v>763</v>
       </c>
       <c r="G71" t="n">
-        <v>2745.89189470325</v>
+        <v>2537.47217943343</v>
       </c>
       <c r="H71" t="n">
         <v>34000</v>
       </c>
       <c r="I71" t="n">
-        <v>19500</v>
+        <v>14008.66538</v>
       </c>
       <c r="J71" t="n">
         <v>58.3333333333333</v>
@@ -6224,7 +6224,7 @@
         <v>3.03789</v>
       </c>
       <c r="G72" t="n">
-        <v>4.10064979876492</v>
+        <v>4.10092571716825</v>
       </c>
       <c r="H72" t="n">
         <v>27.25</v>
@@ -6305,7 +6305,7 @@
         <v>3.03789</v>
       </c>
       <c r="G73" t="n">
-        <v>4.10064979876492</v>
+        <v>4.10092571716825</v>
       </c>
       <c r="H73" t="n">
         <v>27.25</v>
@@ -6386,7 +6386,7 @@
         <v>0.7521</v>
       </c>
       <c r="G74" t="n">
-        <v>0.785857401166718</v>
+        <v>0.785734997756939</v>
       </c>
       <c r="H74" t="n">
         <v>2.81</v>
@@ -6467,7 +6467,7 @@
         <v>0.7521</v>
       </c>
       <c r="G75" t="n">
-        <v>0.785857401166718</v>
+        <v>0.785734997756939</v>
       </c>
       <c r="H75" t="n">
         <v>2.81</v>
@@ -6544,7 +6544,7 @@
         <v>3.15</v>
       </c>
       <c r="G76" t="n">
-        <v>3.92433049578541</v>
+        <v>3.92424550679922</v>
       </c>
       <c r="H76" t="n">
         <v>16.17</v>
@@ -6555,13 +6555,13 @@
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
-        <v>2.359</v>
+        <v>2.35915</v>
       </c>
       <c r="M76" t="n">
-        <v>5.789</v>
+        <v>5.78912</v>
       </c>
       <c r="N76" t="n">
-        <v>8.2417</v>
+        <v>8.241630000000001</v>
       </c>
       <c r="O76" t="n">
         <v>1784937.706</v>
@@ -6621,7 +6621,7 @@
         <v>3.15</v>
       </c>
       <c r="G77" t="n">
-        <v>3.92433049578541</v>
+        <v>3.92424550679922</v>
       </c>
       <c r="H77" t="n">
         <v>16.17</v>
@@ -6632,13 +6632,13 @@
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
-        <v>2.359</v>
+        <v>2.35915</v>
       </c>
       <c r="M77" t="n">
-        <v>5.789</v>
+        <v>5.78912</v>
       </c>
       <c r="N77" t="n">
-        <v>8.2417</v>
+        <v>8.241630000000001</v>
       </c>
       <c r="O77" t="n">
         <v>1784937.706</v>
@@ -7172,13 +7172,13 @@
         <v>873.5</v>
       </c>
       <c r="G84" t="n">
-        <v>4742.94189470325</v>
+        <v>4534.52217943343</v>
       </c>
       <c r="H84" t="n">
         <v>73000</v>
       </c>
       <c r="I84" t="n">
-        <v>25761.25684</v>
+        <v>25000</v>
       </c>
       <c r="J84" t="n">
         <v>63.3333333333333</v>
@@ -7193,7 +7193,7 @@
         <v>5220</v>
       </c>
       <c r="N84" t="n">
-        <v>20500</v>
+        <v>15205.19923</v>
       </c>
       <c r="O84" t="n">
         <v>1784937.706</v>
@@ -7257,13 +7257,13 @@
         <v>873.5</v>
       </c>
       <c r="G85" t="n">
-        <v>4742.94189470325</v>
+        <v>4534.52217943343</v>
       </c>
       <c r="H85" t="n">
         <v>73000</v>
       </c>
       <c r="I85" t="n">
-        <v>25761.25684</v>
+        <v>25000</v>
       </c>
       <c r="J85" t="n">
         <v>63.3333333333333</v>
@@ -7278,7 +7278,7 @@
         <v>5220</v>
       </c>
       <c r="N85" t="n">
-        <v>20500</v>
+        <v>15205.19923</v>
       </c>
       <c r="O85" t="n">
         <v>1784937.706</v>
@@ -7342,13 +7342,13 @@
         <v>873.5</v>
       </c>
       <c r="G86" t="n">
-        <v>4742.94189470325</v>
+        <v>4534.52217943343</v>
       </c>
       <c r="H86" t="n">
         <v>73000</v>
       </c>
       <c r="I86" t="n">
-        <v>25761.25684</v>
+        <v>25000</v>
       </c>
       <c r="J86" t="n">
         <v>63.3333333333333</v>
@@ -7363,7 +7363,7 @@
         <v>5220</v>
       </c>
       <c r="N86" t="n">
-        <v>20500</v>
+        <v>15205.19923</v>
       </c>
       <c r="O86" t="n">
         <v>1784937.706</v>
@@ -7427,13 +7427,13 @@
         <v>873.5</v>
       </c>
       <c r="G87" t="n">
-        <v>4742.94189470325</v>
+        <v>4534.52217943343</v>
       </c>
       <c r="H87" t="n">
         <v>73000</v>
       </c>
       <c r="I87" t="n">
-        <v>25761.25684</v>
+        <v>25000</v>
       </c>
       <c r="J87" t="n">
         <v>63.3333333333333</v>
@@ -7448,7 +7448,7 @@
         <v>5220</v>
       </c>
       <c r="N87" t="n">
-        <v>20500</v>
+        <v>15205.19923</v>
       </c>
       <c r="O87" t="n">
         <v>1784937.706</v>
@@ -7512,7 +7512,7 @@
         <v>3.53874</v>
       </c>
       <c r="G88" t="n">
-        <v>5.6168266669325</v>
+        <v>5.61710258533583</v>
       </c>
       <c r="H88" t="n">
         <v>28.518273377472</v>
@@ -7593,7 +7593,7 @@
         <v>3.53874</v>
       </c>
       <c r="G89" t="n">
-        <v>5.6168266669325</v>
+        <v>5.61710258533583</v>
       </c>
       <c r="H89" t="n">
         <v>28.518273377472</v>
@@ -7674,7 +7674,7 @@
         <v>0.6665</v>
       </c>
       <c r="G90" t="n">
-        <v>0.795515734500051</v>
+        <v>0.795393331090273</v>
       </c>
       <c r="H90" t="n">
         <v>2.81</v>
@@ -7755,7 +7755,7 @@
         <v>0.6665</v>
       </c>
       <c r="G91" t="n">
-        <v>0.795515734500051</v>
+        <v>0.795393331090273</v>
       </c>
       <c r="H91" t="n">
         <v>2.81</v>
@@ -7832,7 +7832,7 @@
         <v>3.75</v>
       </c>
       <c r="G92" t="n">
-        <v>5.06778049578541</v>
+        <v>5.06769050679922</v>
       </c>
       <c r="H92" t="n">
         <v>22.71</v>
@@ -7846,7 +7846,7 @@
         <v>2.735</v>
       </c>
       <c r="M92" t="n">
-        <v>8.2273</v>
+        <v>8.227270000000001</v>
       </c>
       <c r="N92" t="n">
         <v>14.604</v>
@@ -7909,7 +7909,7 @@
         <v>3.75</v>
       </c>
       <c r="G93" t="n">
-        <v>5.06778049578541</v>
+        <v>5.06769050679922</v>
       </c>
       <c r="H93" t="n">
         <v>22.71</v>
@@ -7923,7 +7923,7 @@
         <v>2.735</v>
       </c>
       <c r="M93" t="n">
-        <v>8.2273</v>
+        <v>8.227270000000001</v>
       </c>
       <c r="N93" t="n">
         <v>14.604</v>
@@ -8460,13 +8460,13 @@
         <v>1000</v>
       </c>
       <c r="G100" t="n">
-        <v>5265.32078336704</v>
+        <v>5034.58733703194</v>
       </c>
       <c r="H100" t="n">
         <v>73000</v>
       </c>
       <c r="I100" t="n">
-        <v>25985.13116</v>
+        <v>24278.19495</v>
       </c>
       <c r="J100" t="n">
         <v>66.1016949152542</v>
@@ -8481,7 +8481,7 @@
         <v>7900</v>
       </c>
       <c r="N100" t="n">
-        <v>19993.18178</v>
+        <v>15683.81277</v>
       </c>
       <c r="O100" t="n">
         <v>1784937.706</v>
@@ -8545,13 +8545,13 @@
         <v>1000</v>
       </c>
       <c r="G101" t="n">
-        <v>5265.32078336704</v>
+        <v>5034.58733703194</v>
       </c>
       <c r="H101" t="n">
         <v>73000</v>
       </c>
       <c r="I101" t="n">
-        <v>25985.13116</v>
+        <v>24278.19495</v>
       </c>
       <c r="J101" t="n">
         <v>66.1016949152542</v>
@@ -8566,7 +8566,7 @@
         <v>7900</v>
       </c>
       <c r="N101" t="n">
-        <v>19993.18178</v>
+        <v>15683.81277</v>
       </c>
       <c r="O101" t="n">
         <v>1784937.706</v>
@@ -8630,13 +8630,13 @@
         <v>1000</v>
       </c>
       <c r="G102" t="n">
-        <v>5265.32078336704</v>
+        <v>5034.58733703194</v>
       </c>
       <c r="H102" t="n">
         <v>73000</v>
       </c>
       <c r="I102" t="n">
-        <v>25985.13116</v>
+        <v>24278.19495</v>
       </c>
       <c r="J102" t="n">
         <v>66.1016949152542</v>
@@ -8651,7 +8651,7 @@
         <v>7900</v>
       </c>
       <c r="N102" t="n">
-        <v>19993.18178</v>
+        <v>15683.81277</v>
       </c>
       <c r="O102" t="n">
         <v>1784937.706</v>
@@ -8715,13 +8715,13 @@
         <v>1000</v>
       </c>
       <c r="G103" t="n">
-        <v>5265.32078336704</v>
+        <v>5034.58733703194</v>
       </c>
       <c r="H103" t="n">
         <v>73000</v>
       </c>
       <c r="I103" t="n">
-        <v>25985.13116</v>
+        <v>24278.19495</v>
       </c>
       <c r="J103" t="n">
         <v>66.1016949152542</v>
@@ -8736,7 +8736,7 @@
         <v>7900</v>
       </c>
       <c r="N103" t="n">
-        <v>19993.18178</v>
+        <v>15683.81277</v>
       </c>
       <c r="O103" t="n">
         <v>1784937.706</v>
@@ -8800,7 +8800,7 @@
         <v>3.57282</v>
       </c>
       <c r="G104" t="n">
-        <v>6.2898659259813</v>
+        <v>6.29002981837308</v>
       </c>
       <c r="H104" t="n">
         <v>28.518273377472</v>
@@ -8881,7 +8881,7 @@
         <v>3.57282</v>
       </c>
       <c r="G105" t="n">
-        <v>6.2898659259813</v>
+        <v>6.29002981837308</v>
       </c>
       <c r="H105" t="n">
         <v>28.518273377472</v>
@@ -8962,7 +8962,7 @@
         <v>0.707</v>
       </c>
       <c r="G106" t="n">
-        <v>0.870192277019352</v>
+        <v>0.870122137732713</v>
       </c>
       <c r="H106" t="n">
         <v>2.81</v>
@@ -9043,7 +9043,7 @@
         <v>0.707</v>
       </c>
       <c r="G107" t="n">
-        <v>0.870192277019352</v>
+        <v>0.870122137732713</v>
       </c>
       <c r="H107" t="n">
         <v>2.81</v>
@@ -9748,13 +9748,13 @@
         <v>1400</v>
       </c>
       <c r="G116" t="n">
-        <v>5361.76146133314</v>
+        <v>5131.02801499804</v>
       </c>
       <c r="H116" t="n">
         <v>73000</v>
       </c>
       <c r="I116" t="n">
-        <v>25985.13116</v>
+        <v>24278.19495</v>
       </c>
       <c r="J116" t="n">
         <v>66.1016949152542</v>
@@ -9769,7 +9769,7 @@
         <v>8746</v>
       </c>
       <c r="N116" t="n">
-        <v>19993.18178</v>
+        <v>15900</v>
       </c>
       <c r="O116" t="n">
         <v>1784937.706</v>
@@ -9833,13 +9833,13 @@
         <v>1400</v>
       </c>
       <c r="G117" t="n">
-        <v>5361.76146133314</v>
+        <v>5131.02801499804</v>
       </c>
       <c r="H117" t="n">
         <v>73000</v>
       </c>
       <c r="I117" t="n">
-        <v>25985.13116</v>
+        <v>24278.19495</v>
       </c>
       <c r="J117" t="n">
         <v>66.1016949152542</v>
@@ -9854,7 +9854,7 @@
         <v>8746</v>
       </c>
       <c r="N117" t="n">
-        <v>19993.18178</v>
+        <v>15900</v>
       </c>
       <c r="O117" t="n">
         <v>1784937.706</v>
@@ -9918,13 +9918,13 @@
         <v>1400</v>
       </c>
       <c r="G118" t="n">
-        <v>5361.76146133314</v>
+        <v>5131.02801499804</v>
       </c>
       <c r="H118" t="n">
         <v>73000</v>
       </c>
       <c r="I118" t="n">
-        <v>25985.13116</v>
+        <v>24278.19495</v>
       </c>
       <c r="J118" t="n">
         <v>66.1016949152542</v>
@@ -9939,7 +9939,7 @@
         <v>8746</v>
       </c>
       <c r="N118" t="n">
-        <v>19993.18178</v>
+        <v>15900</v>
       </c>
       <c r="O118" t="n">
         <v>1784937.706</v>
@@ -10003,13 +10003,13 @@
         <v>1400</v>
       </c>
       <c r="G119" t="n">
-        <v>5361.76146133314</v>
+        <v>5131.02801499804</v>
       </c>
       <c r="H119" t="n">
         <v>73000</v>
       </c>
       <c r="I119" t="n">
-        <v>25985.13116</v>
+        <v>24278.19495</v>
       </c>
       <c r="J119" t="n">
         <v>66.1016949152542</v>
@@ -10024,7 +10024,7 @@
         <v>8746</v>
       </c>
       <c r="N119" t="n">
-        <v>19993.18178</v>
+        <v>15900</v>
       </c>
       <c r="O119" t="n">
         <v>1784937.706</v>
@@ -10088,7 +10088,7 @@
         <v>3.8861</v>
       </c>
       <c r="G120" t="n">
-        <v>7.13194888570727</v>
+        <v>7.13211587040832</v>
       </c>
       <c r="H120" t="n">
         <v>37.6</v>
@@ -10169,7 +10169,7 @@
         <v>3.8861</v>
       </c>
       <c r="G121" t="n">
-        <v>7.13194888570727</v>
+        <v>7.13211587040832</v>
       </c>
       <c r="H121" t="n">
         <v>37.6</v>
@@ -10250,7 +10250,7 @@
         <v>0.707</v>
       </c>
       <c r="G122" t="n">
-        <v>0.903327870239691</v>
+        <v>0.903257730953052</v>
       </c>
       <c r="H122" t="n">
         <v>2.81</v>
@@ -10331,7 +10331,7 @@
         <v>0.707</v>
       </c>
       <c r="G123" t="n">
-        <v>0.903327870239691</v>
+        <v>0.903257730953052</v>
       </c>
       <c r="H123" t="n">
         <v>2.81</v>
@@ -11036,13 +11036,13 @@
         <v>1400</v>
       </c>
       <c r="G132" t="n">
-        <v>5600.52502137992</v>
+        <v>5361.6956646471</v>
       </c>
       <c r="H132" t="n">
         <v>73000</v>
       </c>
       <c r="I132" t="n">
-        <v>26432.87979</v>
+        <v>25105.26274</v>
       </c>
       <c r="J132" t="n">
         <v>63.1578947368421</v>
@@ -11057,7 +11057,7 @@
         <v>9700</v>
       </c>
       <c r="N132" t="n">
-        <v>20337.16778</v>
+        <v>12470</v>
       </c>
       <c r="O132" t="n">
         <v>1784937.706</v>
@@ -11121,13 +11121,13 @@
         <v>1400</v>
       </c>
       <c r="G133" t="n">
-        <v>5600.52502137992</v>
+        <v>5361.6956646471</v>
       </c>
       <c r="H133" t="n">
         <v>73000</v>
       </c>
       <c r="I133" t="n">
-        <v>26432.87979</v>
+        <v>25105.26274</v>
       </c>
       <c r="J133" t="n">
         <v>63.1578947368421</v>
@@ -11142,7 +11142,7 @@
         <v>9700</v>
       </c>
       <c r="N133" t="n">
-        <v>20337.16778</v>
+        <v>12470</v>
       </c>
       <c r="O133" t="n">
         <v>1784937.706</v>
@@ -11206,13 +11206,13 @@
         <v>1400</v>
       </c>
       <c r="G134" t="n">
-        <v>5600.52502137992</v>
+        <v>5361.6956646471</v>
       </c>
       <c r="H134" t="n">
         <v>73000</v>
       </c>
       <c r="I134" t="n">
-        <v>26432.87979</v>
+        <v>25105.26274</v>
       </c>
       <c r="J134" t="n">
         <v>63.1578947368421</v>
@@ -11227,7 +11227,7 @@
         <v>9700</v>
       </c>
       <c r="N134" t="n">
-        <v>20337.16778</v>
+        <v>12470</v>
       </c>
       <c r="O134" t="n">
         <v>1784937.706</v>
@@ -11291,13 +11291,13 @@
         <v>1400</v>
       </c>
       <c r="G135" t="n">
-        <v>5600.52502137992</v>
+        <v>5361.6956646471</v>
       </c>
       <c r="H135" t="n">
         <v>73000</v>
       </c>
       <c r="I135" t="n">
-        <v>26432.87979</v>
+        <v>25105.26274</v>
       </c>
       <c r="J135" t="n">
         <v>63.1578947368421</v>
@@ -11312,7 +11312,7 @@
         <v>9700</v>
       </c>
       <c r="N135" t="n">
-        <v>20337.16778</v>
+        <v>12470</v>
       </c>
       <c r="O135" t="n">
         <v>1784937.706</v>
@@ -11538,7 +11538,7 @@
         <v>0.707</v>
       </c>
       <c r="G138" t="n">
-        <v>0.888760427090207</v>
+        <v>0.888687826775966</v>
       </c>
       <c r="H138" t="n">
         <v>2.6</v>
@@ -11619,7 +11619,7 @@
         <v>0.707</v>
       </c>
       <c r="G139" t="n">
-        <v>0.888760427090207</v>
+        <v>0.888687826775966</v>
       </c>
       <c r="H139" t="n">
         <v>2.6</v>
@@ -12132,6 +12132,1294 @@
         </is>
       </c>
     </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Unnamed Trib of Waipu at ds Ratana STP</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>1</v>
+      </c>
+      <c r="G146" t="n">
+        <v>1.22275438596491</v>
+      </c>
+      <c r="H146" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="I146" t="n">
+        <v>2.852</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>0.881</v>
+      </c>
+      <c r="M146" t="n">
+        <v>2.1048</v>
+      </c>
+      <c r="N146" t="n">
+        <v>2.7462</v>
+      </c>
+      <c r="O146" t="n">
+        <v>1784937.706</v>
+      </c>
+      <c r="P146" t="n">
+        <v>5565566.687</v>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R146" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T146" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Unnamed Trib of Waipu at ds Ratana STP</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>1</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1.22275438596491</v>
+      </c>
+      <c r="H147" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="I147" t="n">
+        <v>2.852</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>0.881</v>
+      </c>
+      <c r="M147" t="n">
+        <v>2.1048</v>
+      </c>
+      <c r="N147" t="n">
+        <v>2.7462</v>
+      </c>
+      <c r="O147" t="n">
+        <v>1784937.706</v>
+      </c>
+      <c r="P147" t="n">
+        <v>5565566.687</v>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R147" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T147" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Unnamed Trib of Waipu at ds Ratana STP</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G148" t="n">
+        <v>6768.49687927857</v>
+      </c>
+      <c r="H148" t="n">
+        <v>73000</v>
+      </c>
+      <c r="I148" t="n">
+        <v>36489</v>
+      </c>
+      <c r="J148" t="n">
+        <v>63.1578947368421</v>
+      </c>
+      <c r="K148" t="n">
+        <v>77.1929824561404</v>
+      </c>
+      <c r="L148" t="n">
+        <v>330</v>
+      </c>
+      <c r="M148" t="n">
+        <v>9700</v>
+      </c>
+      <c r="N148" t="n">
+        <v>19295.56279</v>
+      </c>
+      <c r="O148" t="n">
+        <v>1784937.706</v>
+      </c>
+      <c r="P148" t="n">
+        <v>5565566.687</v>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R148" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T148" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="U148" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Unnamed Trib of Waipu at ds Ratana STP</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G149" t="n">
+        <v>6768.49687927857</v>
+      </c>
+      <c r="H149" t="n">
+        <v>73000</v>
+      </c>
+      <c r="I149" t="n">
+        <v>36489</v>
+      </c>
+      <c r="J149" t="n">
+        <v>63.1578947368421</v>
+      </c>
+      <c r="K149" t="n">
+        <v>77.1929824561404</v>
+      </c>
+      <c r="L149" t="n">
+        <v>330</v>
+      </c>
+      <c r="M149" t="n">
+        <v>9700</v>
+      </c>
+      <c r="N149" t="n">
+        <v>19295.56279</v>
+      </c>
+      <c r="O149" t="n">
+        <v>1784937.706</v>
+      </c>
+      <c r="P149" t="n">
+        <v>5565566.687</v>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T149" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Unnamed Trib of Waipu at ds Ratana STP</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G150" t="n">
+        <v>6768.49687927857</v>
+      </c>
+      <c r="H150" t="n">
+        <v>73000</v>
+      </c>
+      <c r="I150" t="n">
+        <v>36489</v>
+      </c>
+      <c r="J150" t="n">
+        <v>63.1578947368421</v>
+      </c>
+      <c r="K150" t="n">
+        <v>77.1929824561404</v>
+      </c>
+      <c r="L150" t="n">
+        <v>330</v>
+      </c>
+      <c r="M150" t="n">
+        <v>9700</v>
+      </c>
+      <c r="N150" t="n">
+        <v>19295.56279</v>
+      </c>
+      <c r="O150" t="n">
+        <v>1784937.706</v>
+      </c>
+      <c r="P150" t="n">
+        <v>5565566.687</v>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T150" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Unnamed Trib of Waipu at ds Ratana STP</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G151" t="n">
+        <v>6768.49687927857</v>
+      </c>
+      <c r="H151" t="n">
+        <v>73000</v>
+      </c>
+      <c r="I151" t="n">
+        <v>36489</v>
+      </c>
+      <c r="J151" t="n">
+        <v>63.1578947368421</v>
+      </c>
+      <c r="K151" t="n">
+        <v>77.1929824561404</v>
+      </c>
+      <c r="L151" t="n">
+        <v>330</v>
+      </c>
+      <c r="M151" t="n">
+        <v>9700</v>
+      </c>
+      <c r="N151" t="n">
+        <v>19295.56279</v>
+      </c>
+      <c r="O151" t="n">
+        <v>1784937.706</v>
+      </c>
+      <c r="P151" t="n">
+        <v>5565566.687</v>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T151" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Unnamed Trib of Waipu at ds Ratana STP</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>5.32021</v>
+      </c>
+      <c r="G152" t="n">
+        <v>8.294741192802199</v>
+      </c>
+      <c r="H152" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="I152" t="n">
+        <v>29.97029</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1.6925</v>
+      </c>
+      <c r="M152" t="n">
+        <v>16.337</v>
+      </c>
+      <c r="N152" t="n">
+        <v>26.16606</v>
+      </c>
+      <c r="O152" t="n">
+        <v>1784937.706</v>
+      </c>
+      <c r="P152" t="n">
+        <v>5565566.687</v>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R152" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T152" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="U152" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Unnamed Trib of Waipu at ds Ratana STP</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>5.32021</v>
+      </c>
+      <c r="G153" t="n">
+        <v>8.294741192802199</v>
+      </c>
+      <c r="H153" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="I153" t="n">
+        <v>29.97029</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1.6925</v>
+      </c>
+      <c r="M153" t="n">
+        <v>16.337</v>
+      </c>
+      <c r="N153" t="n">
+        <v>26.16606</v>
+      </c>
+      <c r="O153" t="n">
+        <v>1784937.706</v>
+      </c>
+      <c r="P153" t="n">
+        <v>5565566.687</v>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T153" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="U153" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Unnamed Trib of Waipu at ds Ratana STP</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.786210526315789</v>
+      </c>
+      <c r="H154" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I154" t="n">
+        <v>2.036</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>0.532</v>
+      </c>
+      <c r="M154" t="n">
+        <v>1.3024</v>
+      </c>
+      <c r="N154" t="n">
+        <v>1.6194</v>
+      </c>
+      <c r="O154" t="n">
+        <v>1784937.706</v>
+      </c>
+      <c r="P154" t="n">
+        <v>5565566.687</v>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T154" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="U154" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Unnamed Trib of Waipu at ds Ratana STP</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.786210526315789</v>
+      </c>
+      <c r="H155" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I155" t="n">
+        <v>2.036</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>0.532</v>
+      </c>
+      <c r="M155" t="n">
+        <v>1.3024</v>
+      </c>
+      <c r="N155" t="n">
+        <v>1.6194</v>
+      </c>
+      <c r="O155" t="n">
+        <v>1784937.706</v>
+      </c>
+      <c r="P155" t="n">
+        <v>5565566.687</v>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R155" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T155" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="U155" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Unnamed Trib of Waipu at ds Ratana STP</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="G156" t="n">
+        <v>7.32724561403509</v>
+      </c>
+      <c r="H156" t="n">
+        <v>22.71</v>
+      </c>
+      <c r="I156" t="n">
+        <v>20.887</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1.782</v>
+      </c>
+      <c r="M156" t="n">
+        <v>13.1003</v>
+      </c>
+      <c r="N156" t="n">
+        <v>19.2262</v>
+      </c>
+      <c r="O156" t="n">
+        <v>1784937.706</v>
+      </c>
+      <c r="P156" t="n">
+        <v>5565566.687</v>
+      </c>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R156" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S156" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T156" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="U156" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Unnamed Trib of Waipu at ds Ratana STP</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="G157" t="n">
+        <v>7.32724561403509</v>
+      </c>
+      <c r="H157" t="n">
+        <v>22.71</v>
+      </c>
+      <c r="I157" t="n">
+        <v>20.887</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1.782</v>
+      </c>
+      <c r="M157" t="n">
+        <v>13.1003</v>
+      </c>
+      <c r="N157" t="n">
+        <v>19.2262</v>
+      </c>
+      <c r="O157" t="n">
+        <v>1784937.706</v>
+      </c>
+      <c r="P157" t="n">
+        <v>5565566.687</v>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T157" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="U157" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Unnamed Trib of Waipu at ds Ratana STP</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="G158" t="n">
+        <v>12.629298245614</v>
+      </c>
+      <c r="H158" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="I158" t="n">
+        <v>23.49</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="M158" t="n">
+        <v>19.224</v>
+      </c>
+      <c r="N158" t="n">
+        <v>23.082</v>
+      </c>
+      <c r="O158" t="n">
+        <v>1784937.706</v>
+      </c>
+      <c r="P158" t="n">
+        <v>5565566.687</v>
+      </c>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R158" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S158" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T158" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="U158" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Unnamed Trib of Waipu at ds Ratana STP</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="G159" t="n">
+        <v>12.629298245614</v>
+      </c>
+      <c r="H159" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="I159" t="n">
+        <v>23.49</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="M159" t="n">
+        <v>19.224</v>
+      </c>
+      <c r="N159" t="n">
+        <v>23.082</v>
+      </c>
+      <c r="O159" t="n">
+        <v>1784937.706</v>
+      </c>
+      <c r="P159" t="n">
+        <v>5565566.687</v>
+      </c>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R159" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S159" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T159" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="U159" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Unnamed Trib of Waipu at ds Ratana STP</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G160" t="n">
+        <v>2.13522807017544</v>
+      </c>
+      <c r="H160" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="I160" t="n">
+        <v>4.143</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="M160" t="n">
+        <v>3.1981</v>
+      </c>
+      <c r="N160" t="n">
+        <v>3.8334</v>
+      </c>
+      <c r="O160" t="n">
+        <v>1784937.706</v>
+      </c>
+      <c r="P160" t="n">
+        <v>5565566.687</v>
+      </c>
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R160" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S160" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T160" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="U160" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Unnamed Trib of Waipu at ds Ratana STP</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G161" t="n">
+        <v>2.13522807017544</v>
+      </c>
+      <c r="H161" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="I161" t="n">
+        <v>4.143</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="M161" t="n">
+        <v>3.1981</v>
+      </c>
+      <c r="N161" t="n">
+        <v>3.8334</v>
+      </c>
+      <c r="O161" t="n">
+        <v>1784937.706</v>
+      </c>
+      <c r="P161" t="n">
+        <v>5565566.687</v>
+      </c>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R161" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S161" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T161" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="U161" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/UnnamedTribofWaipuatdsRatanaSTP_7e04af7e3e.xlsx
+++ b/state_results/Rivers/UnnamedTribofWaipuatdsRatanaSTP_7e04af7e3e.xlsx
@@ -5884,13 +5884,13 @@
         <v>763</v>
       </c>
       <c r="G68" t="n">
-        <v>2537.47217943343</v>
+        <v>2525.18852161494</v>
       </c>
       <c r="H68" t="n">
         <v>34000</v>
       </c>
       <c r="I68" t="n">
-        <v>14008.66538</v>
+        <v>13640.15565</v>
       </c>
       <c r="J68" t="n">
         <v>58.3333333333333</v>
@@ -5969,13 +5969,13 @@
         <v>763</v>
       </c>
       <c r="G69" t="n">
-        <v>2537.47217943343</v>
+        <v>2525.18852161494</v>
       </c>
       <c r="H69" t="n">
         <v>34000</v>
       </c>
       <c r="I69" t="n">
-        <v>14008.66538</v>
+        <v>13640.15565</v>
       </c>
       <c r="J69" t="n">
         <v>58.3333333333333</v>
@@ -6054,13 +6054,13 @@
         <v>763</v>
       </c>
       <c r="G70" t="n">
-        <v>2537.47217943343</v>
+        <v>2525.18852161494</v>
       </c>
       <c r="H70" t="n">
         <v>34000</v>
       </c>
       <c r="I70" t="n">
-        <v>14008.66538</v>
+        <v>13640.15565</v>
       </c>
       <c r="J70" t="n">
         <v>58.3333333333333</v>
@@ -6139,13 +6139,13 @@
         <v>763</v>
       </c>
       <c r="G71" t="n">
-        <v>2537.47217943343</v>
+        <v>2525.18852161494</v>
       </c>
       <c r="H71" t="n">
         <v>34000</v>
       </c>
       <c r="I71" t="n">
-        <v>14008.66538</v>
+        <v>13640.15565</v>
       </c>
       <c r="J71" t="n">
         <v>58.3333333333333</v>
@@ -7172,7 +7172,7 @@
         <v>873.5</v>
       </c>
       <c r="G84" t="n">
-        <v>4534.52217943343</v>
+        <v>4522.23852161494</v>
       </c>
       <c r="H84" t="n">
         <v>73000</v>
@@ -7193,7 +7193,7 @@
         <v>5220</v>
       </c>
       <c r="N84" t="n">
-        <v>15205.19923</v>
+        <v>14984.09339</v>
       </c>
       <c r="O84" t="n">
         <v>1784937.706</v>
@@ -7257,7 +7257,7 @@
         <v>873.5</v>
       </c>
       <c r="G85" t="n">
-        <v>4534.52217943343</v>
+        <v>4522.23852161494</v>
       </c>
       <c r="H85" t="n">
         <v>73000</v>
@@ -7278,7 +7278,7 @@
         <v>5220</v>
       </c>
       <c r="N85" t="n">
-        <v>15205.19923</v>
+        <v>14984.09339</v>
       </c>
       <c r="O85" t="n">
         <v>1784937.706</v>
@@ -7342,7 +7342,7 @@
         <v>873.5</v>
       </c>
       <c r="G86" t="n">
-        <v>4534.52217943343</v>
+        <v>4522.23852161494</v>
       </c>
       <c r="H86" t="n">
         <v>73000</v>
@@ -7363,7 +7363,7 @@
         <v>5220</v>
       </c>
       <c r="N86" t="n">
-        <v>15205.19923</v>
+        <v>14984.09339</v>
       </c>
       <c r="O86" t="n">
         <v>1784937.706</v>
@@ -7427,7 +7427,7 @@
         <v>873.5</v>
       </c>
       <c r="G87" t="n">
-        <v>4534.52217943343</v>
+        <v>4522.23852161494</v>
       </c>
       <c r="H87" t="n">
         <v>73000</v>
@@ -7448,7 +7448,7 @@
         <v>5220</v>
       </c>
       <c r="N87" t="n">
-        <v>15205.19923</v>
+        <v>14984.09339</v>
       </c>
       <c r="O87" t="n">
         <v>1784937.706</v>
@@ -8460,13 +8460,13 @@
         <v>1000</v>
       </c>
       <c r="G100" t="n">
-        <v>5034.58733703194</v>
+        <v>5083.94642941124</v>
       </c>
       <c r="H100" t="n">
         <v>73000</v>
       </c>
       <c r="I100" t="n">
-        <v>24278.19495</v>
+        <v>25920.33762</v>
       </c>
       <c r="J100" t="n">
         <v>66.1016949152542</v>
@@ -8481,7 +8481,7 @@
         <v>7900</v>
       </c>
       <c r="N100" t="n">
-        <v>15683.81277</v>
+        <v>15521.66849</v>
       </c>
       <c r="O100" t="n">
         <v>1784937.706</v>
@@ -8545,13 +8545,13 @@
         <v>1000</v>
       </c>
       <c r="G101" t="n">
-        <v>5034.58733703194</v>
+        <v>5083.94642941124</v>
       </c>
       <c r="H101" t="n">
         <v>73000</v>
       </c>
       <c r="I101" t="n">
-        <v>24278.19495</v>
+        <v>25920.33762</v>
       </c>
       <c r="J101" t="n">
         <v>66.1016949152542</v>
@@ -8566,7 +8566,7 @@
         <v>7900</v>
       </c>
       <c r="N101" t="n">
-        <v>15683.81277</v>
+        <v>15521.66849</v>
       </c>
       <c r="O101" t="n">
         <v>1784937.706</v>
@@ -8630,13 +8630,13 @@
         <v>1000</v>
       </c>
       <c r="G102" t="n">
-        <v>5034.58733703194</v>
+        <v>5083.94642941124</v>
       </c>
       <c r="H102" t="n">
         <v>73000</v>
       </c>
       <c r="I102" t="n">
-        <v>24278.19495</v>
+        <v>25920.33762</v>
       </c>
       <c r="J102" t="n">
         <v>66.1016949152542</v>
@@ -8651,7 +8651,7 @@
         <v>7900</v>
       </c>
       <c r="N102" t="n">
-        <v>15683.81277</v>
+        <v>15521.66849</v>
       </c>
       <c r="O102" t="n">
         <v>1784937.706</v>
@@ -8715,13 +8715,13 @@
         <v>1000</v>
       </c>
       <c r="G103" t="n">
-        <v>5034.58733703194</v>
+        <v>5083.94642941124</v>
       </c>
       <c r="H103" t="n">
         <v>73000</v>
       </c>
       <c r="I103" t="n">
-        <v>24278.19495</v>
+        <v>25920.33762</v>
       </c>
       <c r="J103" t="n">
         <v>66.1016949152542</v>
@@ -8736,7 +8736,7 @@
         <v>7900</v>
       </c>
       <c r="N103" t="n">
-        <v>15683.81277</v>
+        <v>15521.66849</v>
       </c>
       <c r="O103" t="n">
         <v>1784937.706</v>
@@ -9748,13 +9748,13 @@
         <v>1400</v>
       </c>
       <c r="G116" t="n">
-        <v>5131.02801499804</v>
+        <v>5180.38710737734</v>
       </c>
       <c r="H116" t="n">
         <v>73000</v>
       </c>
       <c r="I116" t="n">
-        <v>24278.19495</v>
+        <v>25920.33762</v>
       </c>
       <c r="J116" t="n">
         <v>66.1016949152542</v>
@@ -9833,13 +9833,13 @@
         <v>1400</v>
       </c>
       <c r="G117" t="n">
-        <v>5131.02801499804</v>
+        <v>5180.38710737734</v>
       </c>
       <c r="H117" t="n">
         <v>73000</v>
       </c>
       <c r="I117" t="n">
-        <v>24278.19495</v>
+        <v>25920.33762</v>
       </c>
       <c r="J117" t="n">
         <v>66.1016949152542</v>
@@ -9918,13 +9918,13 @@
         <v>1400</v>
       </c>
       <c r="G118" t="n">
-        <v>5131.02801499804</v>
+        <v>5180.38710737734</v>
       </c>
       <c r="H118" t="n">
         <v>73000</v>
       </c>
       <c r="I118" t="n">
-        <v>24278.19495</v>
+        <v>25920.33762</v>
       </c>
       <c r="J118" t="n">
         <v>66.1016949152542</v>
@@ -10003,13 +10003,13 @@
         <v>1400</v>
       </c>
       <c r="G119" t="n">
-        <v>5131.02801499804</v>
+        <v>5180.38710737734</v>
       </c>
       <c r="H119" t="n">
         <v>73000</v>
       </c>
       <c r="I119" t="n">
-        <v>24278.19495</v>
+        <v>25920.33762</v>
       </c>
       <c r="J119" t="n">
         <v>66.1016949152542</v>
@@ -11036,13 +11036,13 @@
         <v>1400</v>
       </c>
       <c r="G132" t="n">
-        <v>5361.6956646471</v>
+        <v>5412.78665500461</v>
       </c>
       <c r="H132" t="n">
         <v>73000</v>
       </c>
       <c r="I132" t="n">
-        <v>25105.26274</v>
+        <v>26382.48481</v>
       </c>
       <c r="J132" t="n">
         <v>63.1578947368421</v>
@@ -11121,13 +11121,13 @@
         <v>1400</v>
       </c>
       <c r="G133" t="n">
-        <v>5361.6956646471</v>
+        <v>5412.78665500461</v>
       </c>
       <c r="H133" t="n">
         <v>73000</v>
       </c>
       <c r="I133" t="n">
-        <v>25105.26274</v>
+        <v>26382.48481</v>
       </c>
       <c r="J133" t="n">
         <v>63.1578947368421</v>
@@ -11206,13 +11206,13 @@
         <v>1400</v>
       </c>
       <c r="G134" t="n">
-        <v>5361.6956646471</v>
+        <v>5412.78665500461</v>
       </c>
       <c r="H134" t="n">
         <v>73000</v>
       </c>
       <c r="I134" t="n">
-        <v>25105.26274</v>
+        <v>26382.48481</v>
       </c>
       <c r="J134" t="n">
         <v>63.1578947368421</v>
@@ -11291,13 +11291,13 @@
         <v>1400</v>
       </c>
       <c r="G135" t="n">
-        <v>5361.6956646471</v>
+        <v>5412.78665500461</v>
       </c>
       <c r="H135" t="n">
         <v>73000</v>
       </c>
       <c r="I135" t="n">
-        <v>25105.26274</v>
+        <v>26382.48481</v>
       </c>
       <c r="J135" t="n">
         <v>63.1578947368421</v>
@@ -12324,7 +12324,7 @@
         <v>2000</v>
       </c>
       <c r="G148" t="n">
-        <v>6768.49687927857</v>
+        <v>6832.51803576082</v>
       </c>
       <c r="H148" t="n">
         <v>73000</v>
@@ -12345,7 +12345,7 @@
         <v>9700</v>
       </c>
       <c r="N148" t="n">
-        <v>19295.56279</v>
+        <v>22725.81636</v>
       </c>
       <c r="O148" t="n">
         <v>1784937.706</v>
@@ -12409,7 +12409,7 @@
         <v>2000</v>
       </c>
       <c r="G149" t="n">
-        <v>6768.49687927857</v>
+        <v>6832.51803576082</v>
       </c>
       <c r="H149" t="n">
         <v>73000</v>
@@ -12430,7 +12430,7 @@
         <v>9700</v>
       </c>
       <c r="N149" t="n">
-        <v>19295.56279</v>
+        <v>22725.81636</v>
       </c>
       <c r="O149" t="n">
         <v>1784937.706</v>
@@ -12494,7 +12494,7 @@
         <v>2000</v>
       </c>
       <c r="G150" t="n">
-        <v>6768.49687927857</v>
+        <v>6832.51803576082</v>
       </c>
       <c r="H150" t="n">
         <v>73000</v>
@@ -12515,7 +12515,7 @@
         <v>9700</v>
       </c>
       <c r="N150" t="n">
-        <v>19295.56279</v>
+        <v>22725.81636</v>
       </c>
       <c r="O150" t="n">
         <v>1784937.706</v>
@@ -12579,7 +12579,7 @@
         <v>2000</v>
       </c>
       <c r="G151" t="n">
-        <v>6768.49687927857</v>
+        <v>6832.51803576082</v>
       </c>
       <c r="H151" t="n">
         <v>73000</v>
@@ -12600,7 +12600,7 @@
         <v>9700</v>
       </c>
       <c r="N151" t="n">
-        <v>19295.56279</v>
+        <v>22725.81636</v>
       </c>
       <c r="O151" t="n">
         <v>1784937.706</v>

--- a/state_results/Rivers/UnnamedTribofWaipuatdsRatanaSTP_7e04af7e3e.xlsx
+++ b/state_results/Rivers/UnnamedTribofWaipuatdsRatanaSTP_7e04af7e3e.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="65">
   <si>
     <t>site name</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
   </si>
   <si>
     <t>Impact</t>
@@ -563,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U161"/>
+  <dimension ref="A1:U177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -648,7 +651,7 @@
         <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F2">
         <v>0.847</v>
@@ -678,19 +681,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -707,7 +710,7 @@
         <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F3">
         <v>0.847</v>
@@ -737,19 +740,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -766,13 +769,13 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F4">
         <v>657</v>
       </c>
       <c r="G4">
-        <v>4406.53448275862</v>
+        <v>4406.52413793103</v>
       </c>
       <c r="H4">
         <v>69000</v>
@@ -787,7 +790,7 @@
         <v>65.51724137931031</v>
       </c>
       <c r="L4">
-        <v>419.5</v>
+        <v>489</v>
       </c>
       <c r="M4">
         <v>5376.8</v>
@@ -802,19 +805,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -831,13 +834,13 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F5">
         <v>657</v>
       </c>
       <c r="G5">
-        <v>4406.53448275862</v>
+        <v>4406.52413793103</v>
       </c>
       <c r="H5">
         <v>69000</v>
@@ -852,7 +855,7 @@
         <v>65.51724137931031</v>
       </c>
       <c r="L5">
-        <v>419.5</v>
+        <v>489</v>
       </c>
       <c r="M5">
         <v>5376.8</v>
@@ -867,19 +870,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -896,13 +899,13 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F6">
         <v>657</v>
       </c>
       <c r="G6">
-        <v>4406.53448275862</v>
+        <v>4406.52413793103</v>
       </c>
       <c r="H6">
         <v>69000</v>
@@ -917,7 +920,7 @@
         <v>65.51724137931031</v>
       </c>
       <c r="L6">
-        <v>419.5</v>
+        <v>489</v>
       </c>
       <c r="M6">
         <v>5376.8</v>
@@ -932,19 +935,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -961,13 +964,13 @@
         <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F7">
         <v>657</v>
       </c>
       <c r="G7">
-        <v>4406.53448275862</v>
+        <v>4406.52413793103</v>
       </c>
       <c r="H7">
         <v>69000</v>
@@ -982,7 +985,7 @@
         <v>65.51724137931031</v>
       </c>
       <c r="L7">
-        <v>419.5</v>
+        <v>489</v>
       </c>
       <c r="M7">
         <v>5376.8</v>
@@ -997,19 +1000,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1026,7 +1029,7 @@
         <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F8">
         <v>2.68531</v>
@@ -1041,7 +1044,7 @@
         <v>11.73759</v>
       </c>
       <c r="L8">
-        <v>2.31634</v>
+        <v>2.35</v>
       </c>
       <c r="M8">
         <v>7.31304</v>
@@ -1056,19 +1059,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1085,7 +1088,7 @@
         <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F9">
         <v>2.68531</v>
@@ -1100,7 +1103,7 @@
         <v>11.73759</v>
       </c>
       <c r="L9">
-        <v>2.31634</v>
+        <v>2.35</v>
       </c>
       <c r="M9">
         <v>7.31304</v>
@@ -1115,19 +1118,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1144,7 +1147,7 @@
         <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F10">
         <v>0.72565</v>
@@ -1159,7 +1162,7 @@
         <v>1.78616</v>
       </c>
       <c r="L10">
-        <v>0.485</v>
+        <v>0.594</v>
       </c>
       <c r="M10">
         <v>1.16284</v>
@@ -1174,19 +1177,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1203,7 +1206,7 @@
         <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F11">
         <v>0.72565</v>
@@ -1218,7 +1221,7 @@
         <v>1.78616</v>
       </c>
       <c r="L11">
-        <v>0.485</v>
+        <v>0.594</v>
       </c>
       <c r="M11">
         <v>1.16284</v>
@@ -1233,19 +1236,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1259,7 +1262,7 @@
         <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F12">
         <v>4.72355</v>
@@ -1274,7 +1277,7 @@
         <v>15.3622</v>
       </c>
       <c r="L12">
-        <v>3.38695</v>
+        <v>3.5465</v>
       </c>
       <c r="M12">
         <v>9.55148</v>
@@ -1289,19 +1292,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1315,7 +1318,7 @@
         <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F13">
         <v>4.72355</v>
@@ -1330,7 +1333,7 @@
         <v>15.3622</v>
       </c>
       <c r="L13">
-        <v>3.38695</v>
+        <v>3.5465</v>
       </c>
       <c r="M13">
         <v>9.55148</v>
@@ -1345,19 +1348,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1371,7 +1374,7 @@
         <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F14">
         <v>8.975</v>
@@ -1386,7 +1389,7 @@
         <v>18</v>
       </c>
       <c r="L14">
-        <v>9.6485</v>
+        <v>9.548500000000001</v>
       </c>
       <c r="M14">
         <v>15.384</v>
@@ -1401,19 +1404,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1427,7 +1430,7 @@
         <v>42</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F15">
         <v>8.975</v>
@@ -1442,7 +1445,7 @@
         <v>18</v>
       </c>
       <c r="L15">
-        <v>9.6485</v>
+        <v>9.548500000000001</v>
       </c>
       <c r="M15">
         <v>15.384</v>
@@ -1457,19 +1460,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1483,7 +1486,7 @@
         <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F16">
         <v>1.5505</v>
@@ -1513,19 +1516,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1539,7 +1542,7 @@
         <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F17">
         <v>1.5505</v>
@@ -1569,19 +1572,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1598,7 +1601,7 @@
         <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F18">
         <v>0.748</v>
@@ -1613,7 +1616,7 @@
         <v>1.7835</v>
       </c>
       <c r="L18">
-        <v>0.7595</v>
+        <v>0.7885</v>
       </c>
       <c r="M18">
         <v>1.3888</v>
@@ -1628,19 +1631,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1657,7 +1660,7 @@
         <v>43</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F19">
         <v>0.748</v>
@@ -1672,7 +1675,7 @@
         <v>1.7835</v>
       </c>
       <c r="L19">
-        <v>0.7595</v>
+        <v>0.7885</v>
       </c>
       <c r="M19">
         <v>1.3888</v>
@@ -1687,19 +1690,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1716,7 +1719,7 @@
         <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F20">
         <v>558</v>
@@ -1737,7 +1740,7 @@
         <v>63.3333333333333</v>
       </c>
       <c r="L20">
-        <v>216</v>
+        <v>489</v>
       </c>
       <c r="M20">
         <v>4832.2</v>
@@ -1752,19 +1755,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1781,7 +1784,7 @@
         <v>43</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F21">
         <v>558</v>
@@ -1802,7 +1805,7 @@
         <v>63.3333333333333</v>
       </c>
       <c r="L21">
-        <v>216</v>
+        <v>489</v>
       </c>
       <c r="M21">
         <v>4832.2</v>
@@ -1817,19 +1820,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -1846,7 +1849,7 @@
         <v>43</v>
       </c>
       <c r="E22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F22">
         <v>558</v>
@@ -1867,7 +1870,7 @@
         <v>63.3333333333333</v>
       </c>
       <c r="L22">
-        <v>216</v>
+        <v>489</v>
       </c>
       <c r="M22">
         <v>4832.2</v>
@@ -1882,19 +1885,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1911,7 +1914,7 @@
         <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F23">
         <v>558</v>
@@ -1932,7 +1935,7 @@
         <v>63.3333333333333</v>
       </c>
       <c r="L23">
-        <v>216</v>
+        <v>489</v>
       </c>
       <c r="M23">
         <v>4832.2</v>
@@ -1947,19 +1950,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -1976,13 +1979,13 @@
         <v>43</v>
       </c>
       <c r="E24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F24">
         <v>3.46154</v>
       </c>
       <c r="G24">
-        <v>4.39684043691337</v>
+        <v>4.3961916607908</v>
       </c>
       <c r="H24">
         <v>20.8180103799047</v>
@@ -1991,7 +1994,7 @@
         <v>12.46752</v>
       </c>
       <c r="L24">
-        <v>2.35</v>
+        <v>2.45065</v>
       </c>
       <c r="M24">
         <v>7.54345</v>
@@ -2006,19 +2009,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2035,13 +2038,13 @@
         <v>43</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F25">
         <v>3.46154</v>
       </c>
       <c r="G25">
-        <v>4.39684043691337</v>
+        <v>4.3961916607908</v>
       </c>
       <c r="H25">
         <v>20.8180103799047</v>
@@ -2050,7 +2053,7 @@
         <v>12.46752</v>
       </c>
       <c r="L25">
-        <v>2.35</v>
+        <v>2.45065</v>
       </c>
       <c r="M25">
         <v>7.54345</v>
@@ -2065,19 +2068,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2094,13 +2097,13 @@
         <v>43</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F26">
         <v>0.72565</v>
       </c>
       <c r="G26">
-        <v>0.788226562319772</v>
+        <v>0.78805529404668</v>
       </c>
       <c r="H26">
         <v>4.72</v>
@@ -2109,7 +2112,7 @@
         <v>1.7827</v>
       </c>
       <c r="L26">
-        <v>0.25265</v>
+        <v>0.435</v>
       </c>
       <c r="M26">
         <v>1.205</v>
@@ -2124,19 +2127,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2153,13 +2156,13 @@
         <v>43</v>
       </c>
       <c r="E27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F27">
         <v>0.72565</v>
       </c>
       <c r="G27">
-        <v>0.788226562319772</v>
+        <v>0.78805529404668</v>
       </c>
       <c r="H27">
         <v>4.72</v>
@@ -2168,7 +2171,7 @@
         <v>1.7827</v>
       </c>
       <c r="L27">
-        <v>0.25265</v>
+        <v>0.435</v>
       </c>
       <c r="M27">
         <v>1.205</v>
@@ -2183,19 +2186,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2209,13 +2212,13 @@
         <v>43</v>
       </c>
       <c r="E28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F28">
         <v>4.4675</v>
       </c>
       <c r="G28">
-        <v>5.54195550679922</v>
+        <v>5.54119832043588</v>
       </c>
       <c r="H28">
         <v>16.248</v>
@@ -2224,7 +2227,7 @@
         <v>15.2815</v>
       </c>
       <c r="L28">
-        <v>2.7335</v>
+        <v>3.38695</v>
       </c>
       <c r="M28">
         <v>8.993399999999999</v>
@@ -2239,19 +2242,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2265,13 +2268,13 @@
         <v>43</v>
       </c>
       <c r="E29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F29">
         <v>4.4675</v>
       </c>
       <c r="G29">
-        <v>5.54195550679922</v>
+        <v>5.54119832043588</v>
       </c>
       <c r="H29">
         <v>16.248</v>
@@ -2280,7 +2283,7 @@
         <v>15.2815</v>
       </c>
       <c r="L29">
-        <v>2.7335</v>
+        <v>3.38695</v>
       </c>
       <c r="M29">
         <v>8.993399999999999</v>
@@ -2295,19 +2298,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2321,7 +2324,7 @@
         <v>43</v>
       </c>
       <c r="E30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F30">
         <v>8.3255</v>
@@ -2336,7 +2339,7 @@
         <v>17.95</v>
       </c>
       <c r="L30">
-        <v>9.108499999999999</v>
+        <v>8.935</v>
       </c>
       <c r="M30">
         <v>15</v>
@@ -2351,19 +2354,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2377,7 +2380,7 @@
         <v>43</v>
       </c>
       <c r="E31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F31">
         <v>8.3255</v>
@@ -2392,7 +2395,7 @@
         <v>17.95</v>
       </c>
       <c r="L31">
-        <v>9.108499999999999</v>
+        <v>8.935</v>
       </c>
       <c r="M31">
         <v>15</v>
@@ -2407,19 +2410,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2433,7 +2436,7 @@
         <v>43</v>
       </c>
       <c r="E32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F32">
         <v>1.3725</v>
@@ -2448,7 +2451,7 @@
         <v>2.785</v>
       </c>
       <c r="L32">
-        <v>1.9105</v>
+        <v>1.875</v>
       </c>
       <c r="M32">
         <v>2.2374</v>
@@ -2463,19 +2466,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2489,7 +2492,7 @@
         <v>43</v>
       </c>
       <c r="E33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F33">
         <v>1.3725</v>
@@ -2504,7 +2507,7 @@
         <v>2.785</v>
       </c>
       <c r="L33">
-        <v>1.9105</v>
+        <v>1.875</v>
       </c>
       <c r="M33">
         <v>2.2374</v>
@@ -2519,19 +2522,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2548,7 +2551,7 @@
         <v>44</v>
       </c>
       <c r="E34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F34">
         <v>0.5225</v>
@@ -2563,7 +2566,7 @@
         <v>1.7835</v>
       </c>
       <c r="L34">
-        <v>0.537</v>
+        <v>0.606</v>
       </c>
       <c r="M34">
         <v>1.2304</v>
@@ -2578,19 +2581,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2607,7 +2610,7 @@
         <v>44</v>
       </c>
       <c r="E35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F35">
         <v>0.5225</v>
@@ -2622,7 +2625,7 @@
         <v>1.7835</v>
       </c>
       <c r="L35">
-        <v>0.537</v>
+        <v>0.606</v>
       </c>
       <c r="M35">
         <v>1.2304</v>
@@ -2637,19 +2640,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2666,7 +2669,7 @@
         <v>44</v>
       </c>
       <c r="E36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F36">
         <v>645</v>
@@ -2687,7 +2690,7 @@
         <v>68.3333333333333</v>
       </c>
       <c r="L36">
-        <v>548.5</v>
+        <v>696.5</v>
       </c>
       <c r="M36">
         <v>4275</v>
@@ -2702,19 +2705,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -2731,7 +2734,7 @@
         <v>44</v>
       </c>
       <c r="E37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F37">
         <v>645</v>
@@ -2752,7 +2755,7 @@
         <v>68.3333333333333</v>
       </c>
       <c r="L37">
-        <v>548.5</v>
+        <v>696.5</v>
       </c>
       <c r="M37">
         <v>4275</v>
@@ -2767,19 +2770,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -2796,7 +2799,7 @@
         <v>44</v>
       </c>
       <c r="E38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F38">
         <v>645</v>
@@ -2817,7 +2820,7 @@
         <v>68.3333333333333</v>
       </c>
       <c r="L38">
-        <v>548.5</v>
+        <v>696.5</v>
       </c>
       <c r="M38">
         <v>4275</v>
@@ -2832,19 +2835,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -2861,7 +2864,7 @@
         <v>44</v>
       </c>
       <c r="E39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F39">
         <v>645</v>
@@ -2882,7 +2885,7 @@
         <v>68.3333333333333</v>
       </c>
       <c r="L39">
-        <v>548.5</v>
+        <v>696.5</v>
       </c>
       <c r="M39">
         <v>4275</v>
@@ -2897,19 +2900,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -2926,13 +2929,13 @@
         <v>44</v>
       </c>
       <c r="E40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F40">
         <v>3.96083</v>
       </c>
       <c r="G40">
-        <v>4.86334335897353</v>
+        <v>4.86270539578634</v>
       </c>
       <c r="H40">
         <v>27.25</v>
@@ -2941,7 +2944,7 @@
         <v>13.14993</v>
       </c>
       <c r="L40">
-        <v>2.4025</v>
+        <v>2.40032</v>
       </c>
       <c r="M40">
         <v>7.64855</v>
@@ -2956,19 +2959,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -2985,13 +2988,13 @@
         <v>44</v>
       </c>
       <c r="E41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F41">
         <v>3.96083</v>
       </c>
       <c r="G41">
-        <v>4.86334335897353</v>
+        <v>4.86270539578634</v>
       </c>
       <c r="H41">
         <v>27.25</v>
@@ -3000,7 +3003,7 @@
         <v>13.14993</v>
       </c>
       <c r="L41">
-        <v>2.4025</v>
+        <v>2.40032</v>
       </c>
       <c r="M41">
         <v>7.64855</v>
@@ -3015,19 +3018,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -3044,13 +3047,13 @@
         <v>44</v>
       </c>
       <c r="E42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F42">
         <v>0.7851</v>
       </c>
       <c r="G42">
-        <v>0.764976562319772</v>
+        <v>0.76480529404668</v>
       </c>
       <c r="H42">
         <v>2.2</v>
@@ -3059,7 +3062,7 @@
         <v>1.7827</v>
       </c>
       <c r="L42">
-        <v>0.3235</v>
+        <v>0.526</v>
       </c>
       <c r="M42">
         <v>1.18811</v>
@@ -3074,19 +3077,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3103,13 +3106,13 @@
         <v>44</v>
       </c>
       <c r="E43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F43">
         <v>0.7851</v>
       </c>
       <c r="G43">
-        <v>0.764976562319772</v>
+        <v>0.76480529404668</v>
       </c>
       <c r="H43">
         <v>2.2</v>
@@ -3118,7 +3121,7 @@
         <v>1.7827</v>
       </c>
       <c r="L43">
-        <v>0.3235</v>
+        <v>0.526</v>
       </c>
       <c r="M43">
         <v>1.18811</v>
@@ -3133,19 +3136,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3159,13 +3162,13 @@
         <v>44</v>
       </c>
       <c r="E44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F44">
         <v>4.25</v>
       </c>
       <c r="G44">
-        <v>5.02187217346589</v>
+        <v>5.02111498710255</v>
       </c>
       <c r="H44">
         <v>15.7491</v>
@@ -3174,7 +3177,7 @@
         <v>14.365</v>
       </c>
       <c r="L44">
-        <v>2.4798</v>
+        <v>2.66</v>
       </c>
       <c r="M44">
         <v>7.70927</v>
@@ -3189,19 +3192,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U44" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3215,13 +3218,13 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F45">
         <v>4.25</v>
       </c>
       <c r="G45">
-        <v>5.02187217346589</v>
+        <v>5.02111498710255</v>
       </c>
       <c r="H45">
         <v>15.7491</v>
@@ -3230,7 +3233,7 @@
         <v>14.365</v>
       </c>
       <c r="L45">
-        <v>2.4798</v>
+        <v>2.66</v>
       </c>
       <c r="M45">
         <v>7.70927</v>
@@ -3245,19 +3248,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U45" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3271,7 +3274,7 @@
         <v>44</v>
       </c>
       <c r="E46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F46">
         <v>7.8895</v>
@@ -3286,7 +3289,7 @@
         <v>17.6</v>
       </c>
       <c r="L46">
-        <v>8.369999999999999</v>
+        <v>8.255000000000001</v>
       </c>
       <c r="M46">
         <v>13.19</v>
@@ -3301,19 +3304,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3327,7 +3330,7 @@
         <v>44</v>
       </c>
       <c r="E47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F47">
         <v>7.8895</v>
@@ -3342,7 +3345,7 @@
         <v>17.6</v>
       </c>
       <c r="L47">
-        <v>8.369999999999999</v>
+        <v>8.255000000000001</v>
       </c>
       <c r="M47">
         <v>13.19</v>
@@ -3357,19 +3360,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U47" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -3383,7 +3386,7 @@
         <v>44</v>
       </c>
       <c r="E48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F48">
         <v>1.2055</v>
@@ -3398,7 +3401,7 @@
         <v>3</v>
       </c>
       <c r="L48">
-        <v>1.715</v>
+        <v>1.645</v>
       </c>
       <c r="M48">
         <v>2.0502</v>
@@ -3413,19 +3416,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3439,7 +3442,7 @@
         <v>44</v>
       </c>
       <c r="E49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F49">
         <v>1.2055</v>
@@ -3454,7 +3457,7 @@
         <v>3</v>
       </c>
       <c r="L49">
-        <v>1.715</v>
+        <v>1.645</v>
       </c>
       <c r="M49">
         <v>2.0502</v>
@@ -3469,19 +3472,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3498,7 +3501,7 @@
         <v>45</v>
       </c>
       <c r="E50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F50">
         <v>0.4975</v>
@@ -3513,7 +3516,7 @@
         <v>2.075</v>
       </c>
       <c r="L50">
-        <v>0.472</v>
+        <v>0.542</v>
       </c>
       <c r="M50">
         <v>1.0242</v>
@@ -3528,19 +3531,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -3557,7 +3560,7 @@
         <v>45</v>
       </c>
       <c r="E51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F51">
         <v>0.4975</v>
@@ -3572,7 +3575,7 @@
         <v>2.075</v>
       </c>
       <c r="L51">
-        <v>0.472</v>
+        <v>0.542</v>
       </c>
       <c r="M51">
         <v>1.0242</v>
@@ -3587,19 +3590,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -3616,7 +3619,7 @@
         <v>45</v>
       </c>
       <c r="E52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F52">
         <v>665</v>
@@ -3637,7 +3640,7 @@
         <v>66.6666666666667</v>
       </c>
       <c r="L52">
-        <v>405</v>
+        <v>539</v>
       </c>
       <c r="M52">
         <v>3555.2</v>
@@ -3652,19 +3655,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -3681,7 +3684,7 @@
         <v>45</v>
       </c>
       <c r="E53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F53">
         <v>665</v>
@@ -3702,7 +3705,7 @@
         <v>66.6666666666667</v>
       </c>
       <c r="L53">
-        <v>405</v>
+        <v>539</v>
       </c>
       <c r="M53">
         <v>3555.2</v>
@@ -3717,19 +3720,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -3746,7 +3749,7 @@
         <v>45</v>
       </c>
       <c r="E54" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F54">
         <v>665</v>
@@ -3767,7 +3770,7 @@
         <v>66.6666666666667</v>
       </c>
       <c r="L54">
-        <v>405</v>
+        <v>539</v>
       </c>
       <c r="M54">
         <v>3555.2</v>
@@ -3782,19 +3785,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U54" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -3811,7 +3814,7 @@
         <v>45</v>
       </c>
       <c r="E55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F55">
         <v>665</v>
@@ -3832,7 +3835,7 @@
         <v>66.6666666666667</v>
       </c>
       <c r="L55">
-        <v>405</v>
+        <v>539</v>
       </c>
       <c r="M55">
         <v>3555.2</v>
@@ -3847,19 +3850,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -3876,13 +3879,13 @@
         <v>45</v>
       </c>
       <c r="E56" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F56">
         <v>3.23388</v>
       </c>
       <c r="G56">
-        <v>4.52352785978244</v>
+        <v>4.52197506644424</v>
       </c>
       <c r="H56">
         <v>27.25</v>
@@ -3891,7 +3894,7 @@
         <v>13.14993</v>
       </c>
       <c r="L56">
-        <v>3.22538</v>
+        <v>2.50983</v>
       </c>
       <c r="M56">
         <v>7.5615</v>
@@ -3906,19 +3909,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U56" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -3935,13 +3938,13 @@
         <v>45</v>
       </c>
       <c r="E57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F57">
         <v>3.23388</v>
       </c>
       <c r="G57">
-        <v>4.52352785978244</v>
+        <v>4.52197506644424</v>
       </c>
       <c r="H57">
         <v>27.25</v>
@@ -3950,7 +3953,7 @@
         <v>13.14993</v>
       </c>
       <c r="L57">
-        <v>3.22538</v>
+        <v>2.50983</v>
       </c>
       <c r="M57">
         <v>7.5615</v>
@@ -3965,19 +3968,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U57" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -3994,13 +3997,13 @@
         <v>45</v>
       </c>
       <c r="E58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F58">
         <v>0.7467</v>
       </c>
       <c r="G58">
-        <v>0.740593228986438</v>
+        <v>0.740421960713347</v>
       </c>
       <c r="H58">
         <v>2.81</v>
@@ -4009,7 +4012,7 @@
         <v>1.67265</v>
       </c>
       <c r="L58">
-        <v>0.289</v>
+        <v>0.3685</v>
       </c>
       <c r="M58">
         <v>1.18811</v>
@@ -4024,19 +4027,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -4053,13 +4056,13 @@
         <v>45</v>
       </c>
       <c r="E59" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F59">
         <v>0.7467</v>
       </c>
       <c r="G59">
-        <v>0.740593228986438</v>
+        <v>0.740421960713347</v>
       </c>
       <c r="H59">
         <v>2.81</v>
@@ -4068,7 +4071,7 @@
         <v>1.67265</v>
       </c>
       <c r="L59">
-        <v>0.289</v>
+        <v>0.3685</v>
       </c>
       <c r="M59">
         <v>1.18811</v>
@@ -4083,19 +4086,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U59" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -4109,13 +4112,13 @@
         <v>45</v>
       </c>
       <c r="E60" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F60">
         <v>3.24195</v>
       </c>
       <c r="G60">
-        <v>4.17237217346589</v>
+        <v>4.17161498710255</v>
       </c>
       <c r="H60">
         <v>16.17</v>
@@ -4124,7 +4127,7 @@
         <v>14.58</v>
       </c>
       <c r="L60">
-        <v>2.4798</v>
+        <v>2.60575</v>
       </c>
       <c r="M60">
         <v>6.63813</v>
@@ -4139,19 +4142,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T60" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U60" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -4165,13 +4168,13 @@
         <v>45</v>
       </c>
       <c r="E61" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F61">
         <v>3.24195</v>
       </c>
       <c r="G61">
-        <v>4.17237217346589</v>
+        <v>4.17161498710255</v>
       </c>
       <c r="H61">
         <v>16.17</v>
@@ -4180,7 +4183,7 @@
         <v>14.58</v>
       </c>
       <c r="L61">
-        <v>2.4798</v>
+        <v>2.60575</v>
       </c>
       <c r="M61">
         <v>6.63813</v>
@@ -4195,19 +4198,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U61" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -4221,7 +4224,7 @@
         <v>45</v>
       </c>
       <c r="E62" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F62">
         <v>7.615</v>
@@ -4236,7 +4239,7 @@
         <v>17.5</v>
       </c>
       <c r="L62">
-        <v>8.369999999999999</v>
+        <v>8.255000000000001</v>
       </c>
       <c r="M62">
         <v>11.042</v>
@@ -4251,19 +4254,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U62" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -4277,7 +4280,7 @@
         <v>45</v>
       </c>
       <c r="E63" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F63">
         <v>7.615</v>
@@ -4292,7 +4295,7 @@
         <v>17.5</v>
       </c>
       <c r="L63">
-        <v>8.369999999999999</v>
+        <v>8.255000000000001</v>
       </c>
       <c r="M63">
         <v>11.042</v>
@@ -4307,19 +4310,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R63" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S63" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U63" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -4333,7 +4336,7 @@
         <v>45</v>
       </c>
       <c r="E64" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F64">
         <v>1.2055</v>
@@ -4348,7 +4351,7 @@
         <v>2.605</v>
       </c>
       <c r="L64">
-        <v>1.715</v>
+        <v>1.5</v>
       </c>
       <c r="M64">
         <v>2.0502</v>
@@ -4363,19 +4366,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R64" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S64" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -4389,7 +4392,7 @@
         <v>45</v>
       </c>
       <c r="E65" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F65">
         <v>1.2055</v>
@@ -4404,7 +4407,7 @@
         <v>2.605</v>
       </c>
       <c r="L65">
-        <v>1.715</v>
+        <v>1.5</v>
       </c>
       <c r="M65">
         <v>2.0502</v>
@@ -4419,19 +4422,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R65" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S65" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T65" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U65" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -4448,7 +4451,7 @@
         <v>46</v>
       </c>
       <c r="E66" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F66">
         <v>0.552</v>
@@ -4463,7 +4466,7 @@
         <v>2.21</v>
       </c>
       <c r="L66">
-        <v>0.4655</v>
+        <v>0.552</v>
       </c>
       <c r="M66">
         <v>1.1698</v>
@@ -4478,19 +4481,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R66" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S66" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T66" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U66" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -4507,7 +4510,7 @@
         <v>46</v>
       </c>
       <c r="E67" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F67">
         <v>0.552</v>
@@ -4522,7 +4525,7 @@
         <v>2.21</v>
       </c>
       <c r="L67">
-        <v>0.4655</v>
+        <v>0.552</v>
       </c>
       <c r="M67">
         <v>1.1698</v>
@@ -4537,19 +4540,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R67" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S67" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T67" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U67" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -4566,13 +4569,13 @@
         <v>46</v>
       </c>
       <c r="E68" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F68">
         <v>763</v>
       </c>
       <c r="G68">
-        <v>2879.48437160163</v>
+        <v>2870.07647232424</v>
       </c>
       <c r="H68">
         <v>34000</v>
@@ -4587,7 +4590,7 @@
         <v>68.3333333333333</v>
       </c>
       <c r="L68">
-        <v>615</v>
+        <v>680</v>
       </c>
       <c r="M68">
         <v>2940</v>
@@ -4602,19 +4605,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R68" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S68" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T68" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U68" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -4631,13 +4634,13 @@
         <v>46</v>
       </c>
       <c r="E69" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F69">
         <v>763</v>
       </c>
       <c r="G69">
-        <v>2879.48437160163</v>
+        <v>2870.07647232424</v>
       </c>
       <c r="H69">
         <v>34000</v>
@@ -4652,7 +4655,7 @@
         <v>68.3333333333333</v>
       </c>
       <c r="L69">
-        <v>615</v>
+        <v>680</v>
       </c>
       <c r="M69">
         <v>2940</v>
@@ -4667,19 +4670,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R69" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S69" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T69" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U69" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -4696,13 +4699,13 @@
         <v>46</v>
       </c>
       <c r="E70" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F70">
         <v>763</v>
       </c>
       <c r="G70">
-        <v>2879.48437160163</v>
+        <v>2870.07647232424</v>
       </c>
       <c r="H70">
         <v>34000</v>
@@ -4717,7 +4720,7 @@
         <v>68.3333333333333</v>
       </c>
       <c r="L70">
-        <v>615</v>
+        <v>680</v>
       </c>
       <c r="M70">
         <v>2940</v>
@@ -4732,19 +4735,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R70" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S70" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T70" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U70" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -4761,13 +4764,13 @@
         <v>46</v>
       </c>
       <c r="E71" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F71">
         <v>763</v>
       </c>
       <c r="G71">
-        <v>2879.48437160163</v>
+        <v>2870.07647232424</v>
       </c>
       <c r="H71">
         <v>34000</v>
@@ -4782,7 +4785,7 @@
         <v>68.3333333333333</v>
       </c>
       <c r="L71">
-        <v>615</v>
+        <v>680</v>
       </c>
       <c r="M71">
         <v>2940</v>
@@ -4797,19 +4800,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R71" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S71" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T71" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U71" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -4826,13 +4829,13 @@
         <v>46</v>
       </c>
       <c r="E72" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F72">
         <v>3.03789</v>
       </c>
       <c r="G72">
-        <v>4.10092571716825</v>
+        <v>4.09931937923219</v>
       </c>
       <c r="H72">
         <v>27.25</v>
@@ -4841,7 +4844,7 @@
         <v>11.73858</v>
       </c>
       <c r="L72">
-        <v>3.22538</v>
+        <v>2.2379</v>
       </c>
       <c r="M72">
         <v>7.25314</v>
@@ -4856,19 +4859,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R72" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S72" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T72" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U72" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -4885,13 +4888,13 @@
         <v>46</v>
       </c>
       <c r="E73" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F73">
         <v>3.03789</v>
       </c>
       <c r="G73">
-        <v>4.10092571716825</v>
+        <v>4.09931937923219</v>
       </c>
       <c r="H73">
         <v>27.25</v>
@@ -4900,7 +4903,7 @@
         <v>11.73858</v>
       </c>
       <c r="L73">
-        <v>3.22538</v>
+        <v>2.2379</v>
       </c>
       <c r="M73">
         <v>7.25314</v>
@@ -4915,19 +4918,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R73" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S73" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T73" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U73" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -4944,13 +4947,13 @@
         <v>46</v>
       </c>
       <c r="E74" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F74">
         <v>0.7521</v>
       </c>
       <c r="G74">
-        <v>0.785734997756939</v>
+        <v>0.785359252132028</v>
       </c>
       <c r="H74">
         <v>2.81</v>
@@ -4959,7 +4962,7 @@
         <v>1.70495</v>
       </c>
       <c r="L74">
-        <v>0.3275</v>
+        <v>0.3685</v>
       </c>
       <c r="M74">
         <v>1.246</v>
@@ -4974,19 +4977,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S74" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U74" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:21">
@@ -5003,13 +5006,13 @@
         <v>46</v>
       </c>
       <c r="E75" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F75">
         <v>0.7521</v>
       </c>
       <c r="G75">
-        <v>0.785734997756939</v>
+        <v>0.785359252132028</v>
       </c>
       <c r="H75">
         <v>2.81</v>
@@ -5018,7 +5021,7 @@
         <v>1.70495</v>
       </c>
       <c r="L75">
-        <v>0.3275</v>
+        <v>0.3685</v>
       </c>
       <c r="M75">
         <v>1.246</v>
@@ -5033,19 +5036,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R75" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S75" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T75" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U75" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:21">
@@ -5059,13 +5062,13 @@
         <v>46</v>
       </c>
       <c r="E76" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F76">
         <v>3.15</v>
       </c>
       <c r="G76">
-        <v>3.92424550679922</v>
+        <v>3.92348832043588</v>
       </c>
       <c r="H76">
         <v>16.17</v>
@@ -5074,7 +5077,7 @@
         <v>12.295</v>
       </c>
       <c r="L76">
-        <v>2.35915</v>
+        <v>2.4798</v>
       </c>
       <c r="M76">
         <v>5.78912</v>
@@ -5089,19 +5092,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R76" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S76" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T76" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U76" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:21">
@@ -5115,13 +5118,13 @@
         <v>46</v>
       </c>
       <c r="E77" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F77">
         <v>3.15</v>
       </c>
       <c r="G77">
-        <v>3.92424550679922</v>
+        <v>3.92348832043588</v>
       </c>
       <c r="H77">
         <v>16.17</v>
@@ -5130,7 +5133,7 @@
         <v>12.295</v>
       </c>
       <c r="L77">
-        <v>2.35915</v>
+        <v>2.4798</v>
       </c>
       <c r="M77">
         <v>5.78912</v>
@@ -5145,19 +5148,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R77" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S77" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T77" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U77" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:21">
@@ -5171,7 +5174,7 @@
         <v>46</v>
       </c>
       <c r="E78" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F78">
         <v>7.9455</v>
@@ -5186,7 +5189,7 @@
         <v>17.5</v>
       </c>
       <c r="L78">
-        <v>8.505000000000001</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="M78">
         <v>12.41</v>
@@ -5201,19 +5204,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R78" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S78" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T78" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U78" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:21">
@@ -5227,7 +5230,7 @@
         <v>46</v>
       </c>
       <c r="E79" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F79">
         <v>7.9455</v>
@@ -5242,7 +5245,7 @@
         <v>17.5</v>
       </c>
       <c r="L79">
-        <v>8.505000000000001</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="M79">
         <v>12.41</v>
@@ -5257,19 +5260,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R79" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S79" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T79" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U79" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -5283,7 +5286,7 @@
         <v>46</v>
       </c>
       <c r="E80" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F80">
         <v>1.335</v>
@@ -5298,7 +5301,7 @@
         <v>2.795</v>
       </c>
       <c r="L80">
-        <v>1.795</v>
+        <v>1.63</v>
       </c>
       <c r="M80">
         <v>2.295</v>
@@ -5313,19 +5316,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R80" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S80" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T80" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U80" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81" spans="1:21">
@@ -5339,7 +5342,7 @@
         <v>46</v>
       </c>
       <c r="E81" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F81">
         <v>1.335</v>
@@ -5354,7 +5357,7 @@
         <v>2.795</v>
       </c>
       <c r="L81">
-        <v>1.795</v>
+        <v>1.63</v>
       </c>
       <c r="M81">
         <v>2.295</v>
@@ -5369,19 +5372,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R81" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S81" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T81" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U81" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="82" spans="1:21">
@@ -5398,7 +5401,7 @@
         <v>47</v>
       </c>
       <c r="E82" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F82">
         <v>0.5715</v>
@@ -5413,7 +5416,7 @@
         <v>2.51</v>
       </c>
       <c r="L82">
-        <v>0.528</v>
+        <v>0.5715</v>
       </c>
       <c r="M82">
         <v>1.826</v>
@@ -5428,19 +5431,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R82" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S82" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T82" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U82" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83" spans="1:21">
@@ -5457,7 +5460,7 @@
         <v>47</v>
       </c>
       <c r="E83" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F83">
         <v>0.5715</v>
@@ -5472,7 +5475,7 @@
         <v>2.51</v>
       </c>
       <c r="L83">
-        <v>0.528</v>
+        <v>0.5715</v>
       </c>
       <c r="M83">
         <v>1.826</v>
@@ -5487,19 +5490,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R83" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S83" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T83" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U83" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="84" spans="1:21">
@@ -5516,19 +5519,19 @@
         <v>47</v>
       </c>
       <c r="E84" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F84">
         <v>873.5</v>
       </c>
       <c r="G84">
-        <v>4876.53437160163</v>
+        <v>4867.12647232424</v>
       </c>
       <c r="H84">
         <v>73000</v>
       </c>
       <c r="I84">
-        <v>29769.03115</v>
+        <v>29486.79417</v>
       </c>
       <c r="J84">
         <v>63.3333333333333</v>
@@ -5552,19 +5555,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q84" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R84" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S84" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T84" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U84" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="85" spans="1:21">
@@ -5581,19 +5584,19 @@
         <v>47</v>
       </c>
       <c r="E85" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F85">
         <v>873.5</v>
       </c>
       <c r="G85">
-        <v>4876.53437160163</v>
+        <v>4867.12647232424</v>
       </c>
       <c r="H85">
         <v>73000</v>
       </c>
       <c r="I85">
-        <v>29769.03115</v>
+        <v>29486.79417</v>
       </c>
       <c r="J85">
         <v>63.3333333333333</v>
@@ -5617,19 +5620,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R85" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S85" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T85" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U85" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86" spans="1:21">
@@ -5646,19 +5649,19 @@
         <v>47</v>
       </c>
       <c r="E86" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F86">
         <v>873.5</v>
       </c>
       <c r="G86">
-        <v>4876.53437160163</v>
+        <v>4867.12647232424</v>
       </c>
       <c r="H86">
         <v>73000</v>
       </c>
       <c r="I86">
-        <v>29769.03115</v>
+        <v>29486.79417</v>
       </c>
       <c r="J86">
         <v>63.3333333333333</v>
@@ -5682,19 +5685,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R86" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S86" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T86" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U86" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="87" spans="1:21">
@@ -5711,19 +5714,19 @@
         <v>47</v>
       </c>
       <c r="E87" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F87">
         <v>873.5</v>
       </c>
       <c r="G87">
-        <v>4876.53437160163</v>
+        <v>4867.12647232424</v>
       </c>
       <c r="H87">
         <v>73000</v>
       </c>
       <c r="I87">
-        <v>29769.03115</v>
+        <v>29486.79417</v>
       </c>
       <c r="J87">
         <v>63.3333333333333</v>
@@ -5747,19 +5750,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q87" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R87" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S87" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T87" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U87" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="88" spans="1:21">
@@ -5776,13 +5779,13 @@
         <v>47</v>
       </c>
       <c r="E88" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F88">
         <v>3.53874</v>
       </c>
       <c r="G88">
-        <v>5.61710258533583</v>
+        <v>5.61549624739976</v>
       </c>
       <c r="H88">
         <v>28.518273377472</v>
@@ -5791,7 +5794,7 @@
         <v>20.74196</v>
       </c>
       <c r="L88">
-        <v>4.00193</v>
+        <v>2.53312</v>
       </c>
       <c r="M88">
         <v>10.23013</v>
@@ -5806,19 +5809,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R88" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S88" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T88" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U88" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="89" spans="1:21">
@@ -5835,13 +5838,13 @@
         <v>47</v>
       </c>
       <c r="E89" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F89">
         <v>3.53874</v>
       </c>
       <c r="G89">
-        <v>5.61710258533583</v>
+        <v>5.61549624739976</v>
       </c>
       <c r="H89">
         <v>28.518273377472</v>
@@ -5850,7 +5853,7 @@
         <v>20.74196</v>
       </c>
       <c r="L89">
-        <v>4.00193</v>
+        <v>2.53312</v>
       </c>
       <c r="M89">
         <v>10.23013</v>
@@ -5865,19 +5868,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R89" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S89" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T89" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U89" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="90" spans="1:21">
@@ -5894,13 +5897,13 @@
         <v>47</v>
       </c>
       <c r="E90" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F90">
         <v>0.6665</v>
       </c>
       <c r="G90">
-        <v>0.795393331090273</v>
+        <v>0.7950175854653611</v>
       </c>
       <c r="H90">
         <v>2.81</v>
@@ -5909,7 +5912,7 @@
         <v>2.14</v>
       </c>
       <c r="L90">
-        <v>0.387</v>
+        <v>0.55</v>
       </c>
       <c r="M90">
         <v>1.212</v>
@@ -5924,19 +5927,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q90" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R90" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S90" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T90" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U90" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="91" spans="1:21">
@@ -5953,13 +5956,13 @@
         <v>47</v>
       </c>
       <c r="E91" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F91">
         <v>0.6665</v>
       </c>
       <c r="G91">
-        <v>0.795393331090273</v>
+        <v>0.7950175854653611</v>
       </c>
       <c r="H91">
         <v>2.81</v>
@@ -5968,7 +5971,7 @@
         <v>2.14</v>
       </c>
       <c r="L91">
-        <v>0.387</v>
+        <v>0.55</v>
       </c>
       <c r="M91">
         <v>1.212</v>
@@ -5983,19 +5986,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q91" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R91" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S91" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T91" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U91" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="92" spans="1:21">
@@ -6009,13 +6012,13 @@
         <v>47</v>
       </c>
       <c r="E92" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F92">
         <v>3.75</v>
       </c>
       <c r="G92">
-        <v>5.06769050679922</v>
+        <v>5.06693332043588</v>
       </c>
       <c r="H92">
         <v>22.71</v>
@@ -6024,7 +6027,7 @@
         <v>17.72</v>
       </c>
       <c r="L92">
-        <v>2.735</v>
+        <v>2.835</v>
       </c>
       <c r="M92">
         <v>8.227270000000001</v>
@@ -6039,19 +6042,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R92" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S92" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T92" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U92" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="93" spans="1:21">
@@ -6065,13 +6068,13 @@
         <v>47</v>
       </c>
       <c r="E93" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F93">
         <v>3.75</v>
       </c>
       <c r="G93">
-        <v>5.06769050679922</v>
+        <v>5.06693332043588</v>
       </c>
       <c r="H93">
         <v>22.71</v>
@@ -6080,7 +6083,7 @@
         <v>17.72</v>
       </c>
       <c r="L93">
-        <v>2.735</v>
+        <v>2.835</v>
       </c>
       <c r="M93">
         <v>8.227270000000001</v>
@@ -6095,19 +6098,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R93" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S93" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T93" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U93" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="94" spans="1:21">
@@ -6121,7 +6124,7 @@
         <v>47</v>
       </c>
       <c r="E94" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F94">
         <v>8.468999999999999</v>
@@ -6136,7 +6139,7 @@
         <v>22.1</v>
       </c>
       <c r="L94">
-        <v>10.275</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M94">
         <v>14.03</v>
@@ -6151,19 +6154,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R94" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S94" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T94" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U94" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="95" spans="1:21">
@@ -6177,7 +6180,7 @@
         <v>47</v>
       </c>
       <c r="E95" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F95">
         <v>8.468999999999999</v>
@@ -6192,7 +6195,7 @@
         <v>22.1</v>
       </c>
       <c r="L95">
-        <v>10.275</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M95">
         <v>14.03</v>
@@ -6207,19 +6210,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q95" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R95" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S95" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T95" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U95" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="96" spans="1:21">
@@ -6233,7 +6236,7 @@
         <v>47</v>
       </c>
       <c r="E96" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F96">
         <v>1.3665</v>
@@ -6248,7 +6251,7 @@
         <v>3.6</v>
       </c>
       <c r="L96">
-        <v>1.945</v>
+        <v>1.725</v>
       </c>
       <c r="M96">
         <v>2.573</v>
@@ -6263,19 +6266,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q96" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R96" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S96" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T96" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U96" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="97" spans="1:21">
@@ -6289,7 +6292,7 @@
         <v>47</v>
       </c>
       <c r="E97" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F97">
         <v>1.3665</v>
@@ -6304,7 +6307,7 @@
         <v>3.6</v>
       </c>
       <c r="L97">
-        <v>1.945</v>
+        <v>1.725</v>
       </c>
       <c r="M97">
         <v>2.573</v>
@@ -6319,19 +6322,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q97" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R97" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S97" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T97" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U97" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="98" spans="1:21">
@@ -6348,7 +6351,7 @@
         <v>48</v>
       </c>
       <c r="E98" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F98">
         <v>0.675</v>
@@ -6363,7 +6366,7 @@
         <v>2.7685</v>
       </c>
       <c r="L98">
-        <v>0.753</v>
+        <v>0.702</v>
       </c>
       <c r="M98">
         <v>1.9476</v>
@@ -6378,19 +6381,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q98" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R98" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S98" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T98" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U98" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="99" spans="1:21">
@@ -6407,7 +6410,7 @@
         <v>48</v>
       </c>
       <c r="E99" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F99">
         <v>0.675</v>
@@ -6422,7 +6425,7 @@
         <v>2.7685</v>
       </c>
       <c r="L99">
-        <v>0.753</v>
+        <v>0.702</v>
       </c>
       <c r="M99">
         <v>1.9476</v>
@@ -6437,19 +6440,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q99" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R99" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S99" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T99" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="100" spans="1:21">
@@ -6466,19 +6469,19 @@
         <v>48</v>
       </c>
       <c r="E100" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F100">
         <v>1000</v>
       </c>
       <c r="G100">
-        <v>5245.14952028878</v>
+        <v>5574.53313475423</v>
       </c>
       <c r="H100">
         <v>73000</v>
       </c>
       <c r="I100">
-        <v>29945.93426</v>
+        <v>31334.54139</v>
       </c>
       <c r="J100">
         <v>66.1016949152542</v>
@@ -6487,13 +6490,13 @@
         <v>76.27118644067799</v>
       </c>
       <c r="L100">
-        <v>615</v>
+        <v>720</v>
       </c>
       <c r="M100">
         <v>7900</v>
       </c>
       <c r="N100">
-        <v>15818.98707</v>
+        <v>25580</v>
       </c>
       <c r="O100">
         <v>1784937.706</v>
@@ -6502,19 +6505,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q100" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R100" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S100" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T100" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U100" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="101" spans="1:21">
@@ -6531,19 +6534,19 @@
         <v>48</v>
       </c>
       <c r="E101" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F101">
         <v>1000</v>
       </c>
       <c r="G101">
-        <v>5245.14952028878</v>
+        <v>5574.53313475423</v>
       </c>
       <c r="H101">
         <v>73000</v>
       </c>
       <c r="I101">
-        <v>29945.93426</v>
+        <v>31334.54139</v>
       </c>
       <c r="J101">
         <v>66.1016949152542</v>
@@ -6552,13 +6555,13 @@
         <v>76.27118644067799</v>
       </c>
       <c r="L101">
-        <v>615</v>
+        <v>720</v>
       </c>
       <c r="M101">
         <v>7900</v>
       </c>
       <c r="N101">
-        <v>15818.98707</v>
+        <v>25580</v>
       </c>
       <c r="O101">
         <v>1784937.706</v>
@@ -6567,19 +6570,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q101" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R101" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S101" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T101" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U101" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102" spans="1:21">
@@ -6596,19 +6599,19 @@
         <v>48</v>
       </c>
       <c r="E102" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F102">
         <v>1000</v>
       </c>
       <c r="G102">
-        <v>5245.14952028878</v>
+        <v>5574.53313475423</v>
       </c>
       <c r="H102">
         <v>73000</v>
       </c>
       <c r="I102">
-        <v>29945.93426</v>
+        <v>31334.54139</v>
       </c>
       <c r="J102">
         <v>66.1016949152542</v>
@@ -6617,13 +6620,13 @@
         <v>76.27118644067799</v>
       </c>
       <c r="L102">
-        <v>615</v>
+        <v>720</v>
       </c>
       <c r="M102">
         <v>7900</v>
       </c>
       <c r="N102">
-        <v>15818.98707</v>
+        <v>25580</v>
       </c>
       <c r="O102">
         <v>1784937.706</v>
@@ -6632,19 +6635,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q102" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R102" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S102" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T102" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U102" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="103" spans="1:21">
@@ -6661,19 +6664,19 @@
         <v>48</v>
       </c>
       <c r="E103" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F103">
         <v>1000</v>
       </c>
       <c r="G103">
-        <v>5245.14952028878</v>
+        <v>5574.53313475423</v>
       </c>
       <c r="H103">
         <v>73000</v>
       </c>
       <c r="I103">
-        <v>29945.93426</v>
+        <v>31334.54139</v>
       </c>
       <c r="J103">
         <v>66.1016949152542</v>
@@ -6682,13 +6685,13 @@
         <v>76.27118644067799</v>
       </c>
       <c r="L103">
-        <v>615</v>
+        <v>720</v>
       </c>
       <c r="M103">
         <v>7900</v>
       </c>
       <c r="N103">
-        <v>15818.98707</v>
+        <v>25580</v>
       </c>
       <c r="O103">
         <v>1784937.706</v>
@@ -6697,19 +6700,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q103" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R103" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S103" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T103" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U103" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="104" spans="1:21">
@@ -6726,13 +6729,13 @@
         <v>48</v>
       </c>
       <c r="E104" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F104">
         <v>3.57282</v>
       </c>
       <c r="G104">
-        <v>6.29002981837308</v>
+        <v>6.28901334042751</v>
       </c>
       <c r="H104">
         <v>28.518273377472</v>
@@ -6741,7 +6744,7 @@
         <v>21.17098</v>
       </c>
       <c r="L104">
-        <v>3.22538</v>
+        <v>2.56466</v>
       </c>
       <c r="M104">
         <v>12.88271</v>
@@ -6756,19 +6759,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q104" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R104" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S104" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T104" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U104" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="105" spans="1:21">
@@ -6785,13 +6788,13 @@
         <v>48</v>
       </c>
       <c r="E105" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F105">
         <v>3.57282</v>
       </c>
       <c r="G105">
-        <v>6.29002981837308</v>
+        <v>6.28901334042751</v>
       </c>
       <c r="H105">
         <v>28.518273377472</v>
@@ -6800,7 +6803,7 @@
         <v>21.17098</v>
       </c>
       <c r="L105">
-        <v>3.22538</v>
+        <v>2.56466</v>
       </c>
       <c r="M105">
         <v>12.88271</v>
@@ -6815,19 +6818,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q105" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R105" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S105" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T105" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U105" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="106" spans="1:21">
@@ -6844,13 +6847,13 @@
         <v>48</v>
       </c>
       <c r="E106" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F106">
         <v>0.707</v>
       </c>
       <c r="G106">
-        <v>0.870122137732713</v>
+        <v>0.869914194663065</v>
       </c>
       <c r="H106">
         <v>2.81</v>
@@ -6859,7 +6862,7 @@
         <v>2.333</v>
       </c>
       <c r="L106">
-        <v>0.498</v>
+        <v>0.661</v>
       </c>
       <c r="M106">
         <v>1.437</v>
@@ -6874,19 +6877,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q106" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R106" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S106" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T106" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U106" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="107" spans="1:21">
@@ -6903,13 +6906,13 @@
         <v>48</v>
       </c>
       <c r="E107" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F107">
         <v>0.707</v>
       </c>
       <c r="G107">
-        <v>0.870122137732713</v>
+        <v>0.869914194663065</v>
       </c>
       <c r="H107">
         <v>2.81</v>
@@ -6918,7 +6921,7 @@
         <v>2.333</v>
       </c>
       <c r="L107">
-        <v>0.498</v>
+        <v>0.661</v>
       </c>
       <c r="M107">
         <v>1.437</v>
@@ -6933,19 +6936,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q107" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R107" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S107" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T107" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U107" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="108" spans="1:21">
@@ -6959,7 +6962,7 @@
         <v>48</v>
       </c>
       <c r="E108" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F108">
         <v>3.78</v>
@@ -6974,7 +6977,7 @@
         <v>18.235</v>
       </c>
       <c r="L108">
-        <v>2.735</v>
+        <v>2.86</v>
       </c>
       <c r="M108">
         <v>9.6937</v>
@@ -6989,19 +6992,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q108" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R108" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S108" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T108" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U108" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="109" spans="1:21">
@@ -7015,7 +7018,7 @@
         <v>48</v>
       </c>
       <c r="E109" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F109">
         <v>3.78</v>
@@ -7030,7 +7033,7 @@
         <v>18.235</v>
       </c>
       <c r="L109">
-        <v>2.735</v>
+        <v>2.86</v>
       </c>
       <c r="M109">
         <v>9.6937</v>
@@ -7045,19 +7048,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q109" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R109" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S109" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T109" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U109" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="110" spans="1:21">
@@ -7071,7 +7074,7 @@
         <v>48</v>
       </c>
       <c r="E110" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F110">
         <v>8.880000000000001</v>
@@ -7086,7 +7089,7 @@
         <v>20.15</v>
       </c>
       <c r="L110">
-        <v>10.505</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="M110">
         <v>15.393</v>
@@ -7101,19 +7104,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q110" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R110" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S110" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T110" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U110" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="111" spans="1:21">
@@ -7127,7 +7130,7 @@
         <v>48</v>
       </c>
       <c r="E111" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F111">
         <v>8.880000000000001</v>
@@ -7142,7 +7145,7 @@
         <v>20.15</v>
       </c>
       <c r="L111">
-        <v>10.505</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="M111">
         <v>15.393</v>
@@ -7157,19 +7160,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q111" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R111" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S111" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T111" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U111" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="112" spans="1:21">
@@ -7183,7 +7186,7 @@
         <v>48</v>
       </c>
       <c r="E112" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F112">
         <v>1.61</v>
@@ -7198,7 +7201,7 @@
         <v>3.7905</v>
       </c>
       <c r="L112">
-        <v>2.115</v>
+        <v>1.91</v>
       </c>
       <c r="M112">
         <v>2.7429</v>
@@ -7213,19 +7216,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q112" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R112" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S112" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T112" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U112" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="113" spans="1:21">
@@ -7239,7 +7242,7 @@
         <v>48</v>
       </c>
       <c r="E113" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F113">
         <v>1.61</v>
@@ -7254,7 +7257,7 @@
         <v>3.7905</v>
       </c>
       <c r="L113">
-        <v>2.115</v>
+        <v>1.91</v>
       </c>
       <c r="M113">
         <v>2.7429</v>
@@ -7269,19 +7272,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q113" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R113" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S113" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T113" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U113" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="114" spans="1:21">
@@ -7298,7 +7301,7 @@
         <v>49</v>
       </c>
       <c r="E114" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F114">
         <v>0.881</v>
@@ -7313,7 +7316,7 @@
         <v>2.844</v>
       </c>
       <c r="L114">
-        <v>0.931</v>
+        <v>0.906</v>
       </c>
       <c r="M114">
         <v>2.0294</v>
@@ -7328,19 +7331,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q114" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R114" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S114" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T114" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U114" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="115" spans="1:21">
@@ -7357,7 +7360,7 @@
         <v>49</v>
       </c>
       <c r="E115" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F115">
         <v>0.881</v>
@@ -7372,7 +7375,7 @@
         <v>2.844</v>
       </c>
       <c r="L115">
-        <v>0.931</v>
+        <v>0.906</v>
       </c>
       <c r="M115">
         <v>2.0294</v>
@@ -7387,19 +7390,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q115" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R115" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S115" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T115" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U115" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="116" spans="1:21">
@@ -7416,19 +7419,19 @@
         <v>49</v>
       </c>
       <c r="E116" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F116">
         <v>1400</v>
       </c>
       <c r="G116">
-        <v>5341.59019825489</v>
+        <v>5670.97381272033</v>
       </c>
       <c r="H116">
         <v>73000</v>
       </c>
       <c r="I116">
-        <v>29945.93426</v>
+        <v>31334.54139</v>
       </c>
       <c r="J116">
         <v>66.1016949152542</v>
@@ -7437,13 +7440,13 @@
         <v>76.27118644067799</v>
       </c>
       <c r="L116">
-        <v>335</v>
+        <v>720</v>
       </c>
       <c r="M116">
         <v>8746</v>
       </c>
       <c r="N116">
-        <v>15900</v>
+        <v>25580</v>
       </c>
       <c r="O116">
         <v>1784937.706</v>
@@ -7452,19 +7455,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q116" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R116" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S116" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T116" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U116" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="117" spans="1:21">
@@ -7481,19 +7484,19 @@
         <v>49</v>
       </c>
       <c r="E117" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F117">
         <v>1400</v>
       </c>
       <c r="G117">
-        <v>5341.59019825489</v>
+        <v>5670.97381272033</v>
       </c>
       <c r="H117">
         <v>73000</v>
       </c>
       <c r="I117">
-        <v>29945.93426</v>
+        <v>31334.54139</v>
       </c>
       <c r="J117">
         <v>66.1016949152542</v>
@@ -7502,13 +7505,13 @@
         <v>76.27118644067799</v>
       </c>
       <c r="L117">
-        <v>335</v>
+        <v>720</v>
       </c>
       <c r="M117">
         <v>8746</v>
       </c>
       <c r="N117">
-        <v>15900</v>
+        <v>25580</v>
       </c>
       <c r="O117">
         <v>1784937.706</v>
@@ -7517,19 +7520,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q117" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R117" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S117" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T117" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U117" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="118" spans="1:21">
@@ -7546,19 +7549,19 @@
         <v>49</v>
       </c>
       <c r="E118" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F118">
         <v>1400</v>
       </c>
       <c r="G118">
-        <v>5341.59019825489</v>
+        <v>5670.97381272033</v>
       </c>
       <c r="H118">
         <v>73000</v>
       </c>
       <c r="I118">
-        <v>29945.93426</v>
+        <v>31334.54139</v>
       </c>
       <c r="J118">
         <v>66.1016949152542</v>
@@ -7567,13 +7570,13 @@
         <v>76.27118644067799</v>
       </c>
       <c r="L118">
-        <v>335</v>
+        <v>720</v>
       </c>
       <c r="M118">
         <v>8746</v>
       </c>
       <c r="N118">
-        <v>15900</v>
+        <v>25580</v>
       </c>
       <c r="O118">
         <v>1784937.706</v>
@@ -7582,19 +7585,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q118" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R118" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S118" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T118" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U118" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="119" spans="1:21">
@@ -7611,19 +7614,19 @@
         <v>49</v>
       </c>
       <c r="E119" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F119">
         <v>1400</v>
       </c>
       <c r="G119">
-        <v>5341.59019825489</v>
+        <v>5670.97381272033</v>
       </c>
       <c r="H119">
         <v>73000</v>
       </c>
       <c r="I119">
-        <v>29945.93426</v>
+        <v>31334.54139</v>
       </c>
       <c r="J119">
         <v>66.1016949152542</v>
@@ -7632,13 +7635,13 @@
         <v>76.27118644067799</v>
       </c>
       <c r="L119">
-        <v>335</v>
+        <v>720</v>
       </c>
       <c r="M119">
         <v>8746</v>
       </c>
       <c r="N119">
-        <v>15900</v>
+        <v>25580</v>
       </c>
       <c r="O119">
         <v>1784937.706</v>
@@ -7647,19 +7650,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q119" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R119" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S119" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T119" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U119" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="120" spans="1:21">
@@ -7676,13 +7679,13 @@
         <v>49</v>
       </c>
       <c r="E120" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F120">
         <v>3.8861</v>
       </c>
       <c r="G120">
-        <v>7.13211587040832</v>
+        <v>7.1310802136336</v>
       </c>
       <c r="H120">
         <v>37.6</v>
@@ -7691,7 +7694,7 @@
         <v>27.48053</v>
       </c>
       <c r="L120">
-        <v>3.22538</v>
+        <v>3.8861</v>
       </c>
       <c r="M120">
         <v>14.49901</v>
@@ -7706,19 +7709,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q120" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R120" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S120" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T120" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U120" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="121" spans="1:21">
@@ -7735,13 +7738,13 @@
         <v>49</v>
       </c>
       <c r="E121" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F121">
         <v>3.8861</v>
       </c>
       <c r="G121">
-        <v>7.13211587040832</v>
+        <v>7.1310802136336</v>
       </c>
       <c r="H121">
         <v>37.6</v>
@@ -7750,7 +7753,7 @@
         <v>27.48053</v>
       </c>
       <c r="L121">
-        <v>3.22538</v>
+        <v>3.8861</v>
       </c>
       <c r="M121">
         <v>14.49901</v>
@@ -7765,19 +7768,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q121" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R121" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S121" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T121" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U121" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="122" spans="1:21">
@@ -7794,13 +7797,13 @@
         <v>49</v>
       </c>
       <c r="E122" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F122">
         <v>0.707</v>
       </c>
       <c r="G122">
-        <v>0.903257730953052</v>
+        <v>0.903049787883404</v>
       </c>
       <c r="H122">
         <v>2.81</v>
@@ -7809,7 +7812,7 @@
         <v>2.36</v>
       </c>
       <c r="L122">
-        <v>0.584</v>
+        <v>0.662</v>
       </c>
       <c r="M122">
         <v>1.5547</v>
@@ -7824,19 +7827,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q122" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R122" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S122" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T122" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U122" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="123" spans="1:21">
@@ -7853,13 +7856,13 @@
         <v>49</v>
       </c>
       <c r="E123" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F123">
         <v>0.707</v>
       </c>
       <c r="G123">
-        <v>0.903257730953052</v>
+        <v>0.903049787883404</v>
       </c>
       <c r="H123">
         <v>2.81</v>
@@ -7868,7 +7871,7 @@
         <v>2.36</v>
       </c>
       <c r="L123">
-        <v>0.584</v>
+        <v>0.662</v>
       </c>
       <c r="M123">
         <v>1.5547</v>
@@ -7883,19 +7886,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q123" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R123" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S123" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T123" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U123" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="124" spans="1:21">
@@ -7909,7 +7912,7 @@
         <v>49</v>
       </c>
       <c r="E124" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F124">
         <v>3.99</v>
@@ -7924,7 +7927,7 @@
         <v>18.9415</v>
       </c>
       <c r="L124">
-        <v>2.59</v>
+        <v>3.05</v>
       </c>
       <c r="M124">
         <v>10.2492</v>
@@ -7939,19 +7942,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q124" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R124" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S124" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T124" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U124" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="125" spans="1:21">
@@ -7965,7 +7968,7 @@
         <v>49</v>
       </c>
       <c r="E125" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F125">
         <v>3.99</v>
@@ -7980,7 +7983,7 @@
         <v>18.9415</v>
       </c>
       <c r="L125">
-        <v>2.59</v>
+        <v>3.05</v>
       </c>
       <c r="M125">
         <v>10.2492</v>
@@ -7995,19 +7998,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q125" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R125" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S125" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T125" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U125" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="126" spans="1:21">
@@ -8021,7 +8024,7 @@
         <v>49</v>
       </c>
       <c r="E126" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F126">
         <v>10.2</v>
@@ -8036,7 +8039,7 @@
         <v>21.975</v>
       </c>
       <c r="L126">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="M126">
         <v>17.647</v>
@@ -8051,19 +8054,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q126" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R126" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S126" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T126" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U126" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="127" spans="1:21">
@@ -8077,7 +8080,7 @@
         <v>49</v>
       </c>
       <c r="E127" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F127">
         <v>10.2</v>
@@ -8092,7 +8095,7 @@
         <v>21.975</v>
       </c>
       <c r="L127">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="M127">
         <v>17.647</v>
@@ -8107,19 +8110,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q127" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R127" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S127" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T127" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U127" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="128" spans="1:21">
@@ -8133,7 +8136,7 @@
         <v>49</v>
       </c>
       <c r="E128" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F128">
         <v>2.14</v>
@@ -8148,7 +8151,7 @@
         <v>4.141</v>
       </c>
       <c r="L128">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="M128">
         <v>3.0129</v>
@@ -8163,19 +8166,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q128" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R128" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S128" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T128" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U128" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="129" spans="1:21">
@@ -8189,7 +8192,7 @@
         <v>49</v>
       </c>
       <c r="E129" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F129">
         <v>2.14</v>
@@ -8204,7 +8207,7 @@
         <v>4.141</v>
       </c>
       <c r="L129">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="M129">
         <v>3.0129</v>
@@ -8219,19 +8222,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q129" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R129" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S129" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T129" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U129" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="130" spans="1:21">
@@ -8248,7 +8251,7 @@
         <v>50</v>
       </c>
       <c r="E130" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F130">
         <v>0.956</v>
@@ -8263,7 +8266,7 @@
         <v>2.852</v>
       </c>
       <c r="L130">
-        <v>0.906</v>
+        <v>0.931</v>
       </c>
       <c r="M130">
         <v>2.1048</v>
@@ -8278,19 +8281,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q130" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R130" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S130" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T130" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U130" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="131" spans="1:21">
@@ -8307,7 +8310,7 @@
         <v>50</v>
       </c>
       <c r="E131" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F131">
         <v>0.956</v>
@@ -8322,7 +8325,7 @@
         <v>2.852</v>
       </c>
       <c r="L131">
-        <v>0.906</v>
+        <v>0.931</v>
       </c>
       <c r="M131">
         <v>2.1048</v>
@@ -8337,19 +8340,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q131" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R131" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S131" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T131" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U131" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="132" spans="1:21">
@@ -8366,19 +8369,19 @@
         <v>50</v>
       </c>
       <c r="E132" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F132">
         <v>1400</v>
       </c>
       <c r="G132">
-        <v>5579.64599468488</v>
+        <v>5920.5834201842</v>
       </c>
       <c r="H132">
         <v>73000</v>
       </c>
       <c r="I132">
-        <v>30299.74049</v>
+        <v>31400.16922</v>
       </c>
       <c r="J132">
         <v>63.1578947368421</v>
@@ -8387,13 +8390,13 @@
         <v>77.1929824561404</v>
       </c>
       <c r="L132">
-        <v>340</v>
+        <v>1500</v>
       </c>
       <c r="M132">
         <v>9700</v>
       </c>
       <c r="N132">
-        <v>12470</v>
+        <v>27070</v>
       </c>
       <c r="O132">
         <v>1784937.706</v>
@@ -8402,19 +8405,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q132" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R132" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S132" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T132" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U132" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="133" spans="1:21">
@@ -8431,19 +8434,19 @@
         <v>50</v>
       </c>
       <c r="E133" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F133">
         <v>1400</v>
       </c>
       <c r="G133">
-        <v>5579.64599468488</v>
+        <v>5920.5834201842</v>
       </c>
       <c r="H133">
         <v>73000</v>
       </c>
       <c r="I133">
-        <v>30299.74049</v>
+        <v>31400.16922</v>
       </c>
       <c r="J133">
         <v>63.1578947368421</v>
@@ -8452,13 +8455,13 @@
         <v>77.1929824561404</v>
       </c>
       <c r="L133">
-        <v>340</v>
+        <v>1500</v>
       </c>
       <c r="M133">
         <v>9700</v>
       </c>
       <c r="N133">
-        <v>12470</v>
+        <v>27070</v>
       </c>
       <c r="O133">
         <v>1784937.706</v>
@@ -8467,19 +8470,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q133" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R133" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S133" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T133" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U133" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="134" spans="1:21">
@@ -8496,19 +8499,19 @@
         <v>50</v>
       </c>
       <c r="E134" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F134">
         <v>1400</v>
       </c>
       <c r="G134">
-        <v>5579.64599468488</v>
+        <v>5920.5834201842</v>
       </c>
       <c r="H134">
         <v>73000</v>
       </c>
       <c r="I134">
-        <v>30299.74049</v>
+        <v>31400.16922</v>
       </c>
       <c r="J134">
         <v>63.1578947368421</v>
@@ -8517,13 +8520,13 @@
         <v>77.1929824561404</v>
       </c>
       <c r="L134">
-        <v>340</v>
+        <v>1500</v>
       </c>
       <c r="M134">
         <v>9700</v>
       </c>
       <c r="N134">
-        <v>12470</v>
+        <v>27070</v>
       </c>
       <c r="O134">
         <v>1784937.706</v>
@@ -8532,19 +8535,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q134" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R134" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S134" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T134" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U134" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="135" spans="1:21">
@@ -8561,19 +8564,19 @@
         <v>50</v>
       </c>
       <c r="E135" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F135">
         <v>1400</v>
       </c>
       <c r="G135">
-        <v>5579.64599468488</v>
+        <v>5920.5834201842</v>
       </c>
       <c r="H135">
         <v>73000</v>
       </c>
       <c r="I135">
-        <v>30299.74049</v>
+        <v>31400.16922</v>
       </c>
       <c r="J135">
         <v>63.1578947368421</v>
@@ -8582,13 +8585,13 @@
         <v>77.1929824561404</v>
       </c>
       <c r="L135">
-        <v>340</v>
+        <v>1500</v>
       </c>
       <c r="M135">
         <v>9700</v>
       </c>
       <c r="N135">
-        <v>12470</v>
+        <v>27070</v>
       </c>
       <c r="O135">
         <v>1784937.706</v>
@@ -8597,19 +8600,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q135" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R135" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S135" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T135" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U135" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="136" spans="1:21">
@@ -8626,7 +8629,7 @@
         <v>50</v>
       </c>
       <c r="E136" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F136">
         <v>5.87576</v>
@@ -8641,7 +8644,7 @@
         <v>29.34039</v>
       </c>
       <c r="L136">
-        <v>1.705</v>
+        <v>4.99676</v>
       </c>
       <c r="M136">
         <v>15.96926</v>
@@ -8656,19 +8659,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q136" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R136" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S136" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T136" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U136" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="137" spans="1:21">
@@ -8685,7 +8688,7 @@
         <v>50</v>
       </c>
       <c r="E137" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F137">
         <v>5.87576</v>
@@ -8700,7 +8703,7 @@
         <v>29.34039</v>
       </c>
       <c r="L137">
-        <v>1.705</v>
+        <v>4.99676</v>
       </c>
       <c r="M137">
         <v>15.96926</v>
@@ -8715,19 +8718,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q137" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R137" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S137" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T137" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U137" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="138" spans="1:21">
@@ -8744,13 +8747,13 @@
         <v>50</v>
       </c>
       <c r="E138" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F138">
         <v>0.707</v>
       </c>
       <c r="G138">
-        <v>0.888687826775966</v>
+        <v>0.88847258745826</v>
       </c>
       <c r="H138">
         <v>2.6</v>
@@ -8759,7 +8762,7 @@
         <v>2.229</v>
       </c>
       <c r="L138">
-        <v>0.662</v>
+        <v>0.664</v>
       </c>
       <c r="M138">
         <v>1.5462</v>
@@ -8774,19 +8777,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q138" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R138" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T138" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U138" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="139" spans="1:21">
@@ -8803,13 +8806,13 @@
         <v>50</v>
       </c>
       <c r="E139" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F139">
         <v>0.707</v>
       </c>
       <c r="G139">
-        <v>0.888687826775966</v>
+        <v>0.88847258745826</v>
       </c>
       <c r="H139">
         <v>2.6</v>
@@ -8818,7 +8821,7 @@
         <v>2.229</v>
       </c>
       <c r="L139">
-        <v>0.662</v>
+        <v>0.664</v>
       </c>
       <c r="M139">
         <v>1.5462</v>
@@ -8833,19 +8836,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q139" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R139" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S139" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U139" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="140" spans="1:21">
@@ -8859,7 +8862,7 @@
         <v>50</v>
       </c>
       <c r="E140" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F140">
         <v>5.24</v>
@@ -8874,7 +8877,7 @@
         <v>20.245</v>
       </c>
       <c r="L140">
-        <v>1.765</v>
+        <v>2.59</v>
       </c>
       <c r="M140">
         <v>12.423</v>
@@ -8889,19 +8892,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q140" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R140" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S140" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T140" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U140" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="141" spans="1:21">
@@ -8915,7 +8918,7 @@
         <v>50</v>
       </c>
       <c r="E141" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F141">
         <v>5.24</v>
@@ -8930,7 +8933,7 @@
         <v>20.245</v>
       </c>
       <c r="L141">
-        <v>1.765</v>
+        <v>2.59</v>
       </c>
       <c r="M141">
         <v>12.423</v>
@@ -8945,19 +8948,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q141" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R141" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S141" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T141" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U141" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="142" spans="1:21">
@@ -8971,7 +8974,7 @@
         <v>50</v>
       </c>
       <c r="E142" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F142">
         <v>11.7</v>
@@ -8986,7 +8989,7 @@
         <v>23.49</v>
       </c>
       <c r="L142">
-        <v>11.3</v>
+        <v>11.9</v>
       </c>
       <c r="M142">
         <v>18.71</v>
@@ -9001,19 +9004,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q142" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R142" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S142" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T142" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U142" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="143" spans="1:21">
@@ -9027,7 +9030,7 @@
         <v>50</v>
       </c>
       <c r="E143" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F143">
         <v>11.7</v>
@@ -9042,7 +9045,7 @@
         <v>23.49</v>
       </c>
       <c r="L143">
-        <v>11.3</v>
+        <v>11.9</v>
       </c>
       <c r="M143">
         <v>18.71</v>
@@ -9057,19 +9060,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q143" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R143" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S143" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T143" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U143" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="144" spans="1:21">
@@ -9083,7 +9086,7 @@
         <v>50</v>
       </c>
       <c r="E144" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F144">
         <v>2.14</v>
@@ -9098,7 +9101,7 @@
         <v>4.143</v>
       </c>
       <c r="L144">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="M144">
         <v>3.1981</v>
@@ -9113,19 +9116,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q144" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R144" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S144" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T144" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U144" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="145" spans="1:21">
@@ -9139,7 +9142,7 @@
         <v>50</v>
       </c>
       <c r="E145" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F145">
         <v>2.14</v>
@@ -9154,7 +9157,7 @@
         <v>4.143</v>
       </c>
       <c r="L145">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="M145">
         <v>3.1981</v>
@@ -9169,19 +9172,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q145" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R145" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S145" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T145" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U145" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="146" spans="1:21">
@@ -9198,7 +9201,7 @@
         <v>51</v>
       </c>
       <c r="E146" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F146">
         <v>1</v>
@@ -9213,7 +9216,7 @@
         <v>2.852</v>
       </c>
       <c r="L146">
-        <v>0.881</v>
+        <v>1.13</v>
       </c>
       <c r="M146">
         <v>2.1048</v>
@@ -9228,19 +9231,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q146" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R146" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S146" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T146" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U146" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="147" spans="1:21">
@@ -9257,7 +9260,7 @@
         <v>51</v>
       </c>
       <c r="E147" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F147">
         <v>1</v>
@@ -9272,7 +9275,7 @@
         <v>2.852</v>
       </c>
       <c r="L147">
-        <v>0.881</v>
+        <v>1.13</v>
       </c>
       <c r="M147">
         <v>2.1048</v>
@@ -9287,19 +9290,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q147" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R147" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S147" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T147" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U147" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="148" spans="1:21">
@@ -9316,19 +9319,19 @@
         <v>51</v>
       </c>
       <c r="E148" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F148">
         <v>2000</v>
       </c>
       <c r="G148">
-        <v>6626.4343754551</v>
+        <v>6977.29941422886</v>
       </c>
       <c r="H148">
         <v>73000</v>
       </c>
       <c r="I148">
-        <v>36489</v>
+        <v>37759.45331</v>
       </c>
       <c r="J148">
         <v>63.1578947368421</v>
@@ -9337,13 +9340,13 @@
         <v>77.1929824561404</v>
       </c>
       <c r="L148">
-        <v>330</v>
+        <v>1474.6</v>
       </c>
       <c r="M148">
         <v>9700</v>
       </c>
       <c r="N148">
-        <v>12470</v>
+        <v>27070</v>
       </c>
       <c r="O148">
         <v>1784937.706</v>
@@ -9352,19 +9355,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q148" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R148" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S148" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T148" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U148" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="149" spans="1:21">
@@ -9381,19 +9384,19 @@
         <v>51</v>
       </c>
       <c r="E149" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F149">
         <v>2000</v>
       </c>
       <c r="G149">
-        <v>6626.4343754551</v>
+        <v>6977.29941422886</v>
       </c>
       <c r="H149">
         <v>73000</v>
       </c>
       <c r="I149">
-        <v>36489</v>
+        <v>37759.45331</v>
       </c>
       <c r="J149">
         <v>63.1578947368421</v>
@@ -9402,13 +9405,13 @@
         <v>77.1929824561404</v>
       </c>
       <c r="L149">
-        <v>330</v>
+        <v>1474.6</v>
       </c>
       <c r="M149">
         <v>9700</v>
       </c>
       <c r="N149">
-        <v>12470</v>
+        <v>27070</v>
       </c>
       <c r="O149">
         <v>1784937.706</v>
@@ -9417,19 +9420,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q149" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R149" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S149" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T149" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U149" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="150" spans="1:21">
@@ -9446,19 +9449,19 @@
         <v>51</v>
       </c>
       <c r="E150" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F150">
         <v>2000</v>
       </c>
       <c r="G150">
-        <v>6626.4343754551</v>
+        <v>6977.29941422886</v>
       </c>
       <c r="H150">
         <v>73000</v>
       </c>
       <c r="I150">
-        <v>36489</v>
+        <v>37759.45331</v>
       </c>
       <c r="J150">
         <v>63.1578947368421</v>
@@ -9467,13 +9470,13 @@
         <v>77.1929824561404</v>
       </c>
       <c r="L150">
-        <v>330</v>
+        <v>1474.6</v>
       </c>
       <c r="M150">
         <v>9700</v>
       </c>
       <c r="N150">
-        <v>12470</v>
+        <v>27070</v>
       </c>
       <c r="O150">
         <v>1784937.706</v>
@@ -9482,19 +9485,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q150" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R150" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S150" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T150" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U150" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="151" spans="1:21">
@@ -9511,19 +9514,19 @@
         <v>51</v>
       </c>
       <c r="E151" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F151">
         <v>2000</v>
       </c>
       <c r="G151">
-        <v>6626.4343754551</v>
+        <v>6977.29941422886</v>
       </c>
       <c r="H151">
         <v>73000</v>
       </c>
       <c r="I151">
-        <v>36489</v>
+        <v>37759.45331</v>
       </c>
       <c r="J151">
         <v>63.1578947368421</v>
@@ -9532,13 +9535,13 @@
         <v>77.1929824561404</v>
       </c>
       <c r="L151">
-        <v>330</v>
+        <v>1474.6</v>
       </c>
       <c r="M151">
         <v>9700</v>
       </c>
       <c r="N151">
-        <v>12470</v>
+        <v>27070</v>
       </c>
       <c r="O151">
         <v>1784937.706</v>
@@ -9547,19 +9550,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q151" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R151" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S151" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T151" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U151" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="152" spans="1:21">
@@ -9576,7 +9579,7 @@
         <v>51</v>
       </c>
       <c r="E152" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F152">
         <v>5.32021</v>
@@ -9591,7 +9594,7 @@
         <v>29.97029</v>
       </c>
       <c r="L152">
-        <v>1.6925</v>
+        <v>5.87576</v>
       </c>
       <c r="M152">
         <v>16.337</v>
@@ -9606,19 +9609,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q152" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R152" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S152" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T152" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U152" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="153" spans="1:21">
@@ -9635,7 +9638,7 @@
         <v>51</v>
       </c>
       <c r="E153" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F153">
         <v>5.32021</v>
@@ -9650,7 +9653,7 @@
         <v>29.97029</v>
       </c>
       <c r="L153">
-        <v>1.6925</v>
+        <v>5.87576</v>
       </c>
       <c r="M153">
         <v>16.337</v>
@@ -9665,19 +9668,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q153" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R153" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S153" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T153" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U153" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="154" spans="1:21">
@@ -9694,7 +9697,7 @@
         <v>51</v>
       </c>
       <c r="E154" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F154">
         <v>0.64</v>
@@ -9709,7 +9712,7 @@
         <v>2.036</v>
       </c>
       <c r="L154">
-        <v>0.532</v>
+        <v>0.6125</v>
       </c>
       <c r="M154">
         <v>1.3024</v>
@@ -9724,19 +9727,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q154" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R154" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S154" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T154" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U154" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="155" spans="1:21">
@@ -9753,7 +9756,7 @@
         <v>51</v>
       </c>
       <c r="E155" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F155">
         <v>0.64</v>
@@ -9768,7 +9771,7 @@
         <v>2.036</v>
       </c>
       <c r="L155">
-        <v>0.532</v>
+        <v>0.6125</v>
       </c>
       <c r="M155">
         <v>1.3024</v>
@@ -9783,19 +9786,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q155" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R155" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S155" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T155" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U155" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="156" spans="1:21">
@@ -9809,7 +9812,7 @@
         <v>51</v>
       </c>
       <c r="E156" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F156">
         <v>5.99</v>
@@ -9824,7 +9827,7 @@
         <v>20.887</v>
       </c>
       <c r="L156">
-        <v>1.782</v>
+        <v>3.508</v>
       </c>
       <c r="M156">
         <v>13.1003</v>
@@ -9839,19 +9842,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q156" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R156" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S156" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T156" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U156" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="157" spans="1:21">
@@ -9865,7 +9868,7 @@
         <v>51</v>
       </c>
       <c r="E157" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F157">
         <v>5.99</v>
@@ -9880,7 +9883,7 @@
         <v>20.887</v>
       </c>
       <c r="L157">
-        <v>1.782</v>
+        <v>3.508</v>
       </c>
       <c r="M157">
         <v>13.1003</v>
@@ -9895,19 +9898,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q157" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R157" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S157" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T157" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U157" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="158" spans="1:21">
@@ -9921,7 +9924,7 @@
         <v>51</v>
       </c>
       <c r="E158" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F158">
         <v>12.1</v>
@@ -9936,7 +9939,7 @@
         <v>23.49</v>
       </c>
       <c r="L158">
-        <v>11.3</v>
+        <v>12.1</v>
       </c>
       <c r="M158">
         <v>19.224</v>
@@ -9951,19 +9954,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q158" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R158" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S158" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T158" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U158" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="159" spans="1:21">
@@ -9977,7 +9980,7 @@
         <v>51</v>
       </c>
       <c r="E159" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F159">
         <v>12.1</v>
@@ -9992,7 +9995,7 @@
         <v>23.49</v>
       </c>
       <c r="L159">
-        <v>11.3</v>
+        <v>12.1</v>
       </c>
       <c r="M159">
         <v>19.224</v>
@@ -10007,19 +10010,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q159" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R159" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S159" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T159" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U159" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="160" spans="1:21">
@@ -10033,7 +10036,7 @@
         <v>51</v>
       </c>
       <c r="E160" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F160">
         <v>2.14</v>
@@ -10048,7 +10051,7 @@
         <v>4.143</v>
       </c>
       <c r="L160">
-        <v>2.23</v>
+        <v>2.375</v>
       </c>
       <c r="M160">
         <v>3.1981</v>
@@ -10063,19 +10066,19 @@
         <v>5565566.687</v>
       </c>
       <c r="Q160" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R160" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S160" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T160" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U160" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="161" spans="1:21">
@@ -10089,7 +10092,7 @@
         <v>51</v>
       </c>
       <c r="E161" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F161">
         <v>2.14</v>
@@ -10104,7 +10107,7 @@
         <v>4.143</v>
       </c>
       <c r="L161">
-        <v>2.23</v>
+        <v>2.375</v>
       </c>
       <c r="M161">
         <v>3.1981</v>
@@ -10119,19 +10122,969 @@
         <v>5565566.687</v>
       </c>
       <c r="Q161" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R161" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S161" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T161" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U161" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="162" spans="1:21">
+      <c r="A162" t="s">
+        <v>21</v>
+      </c>
+      <c r="B162" t="s">
+        <v>22</v>
+      </c>
+      <c r="C162" t="s">
+        <v>38</v>
+      </c>
+      <c r="D162" t="s">
+        <v>52</v>
+      </c>
+      <c r="E162" t="s">
+        <v>53</v>
+      </c>
+      <c r="F162">
+        <v>0.854</v>
+      </c>
+      <c r="G162">
+        <v>1.05417543859649</v>
+      </c>
+      <c r="H162">
+        <v>3.28</v>
+      </c>
+      <c r="I162">
+        <v>2.786</v>
+      </c>
+      <c r="L162">
+        <v>0.829</v>
+      </c>
+      <c r="M162">
+        <v>1.6943</v>
+      </c>
+      <c r="N162">
+        <v>2.524</v>
+      </c>
+      <c r="O162">
+        <v>1784937.706</v>
+      </c>
+      <c r="P162">
+        <v>5565566.687</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>54</v>
+      </c>
+      <c r="R162" t="s">
+        <v>55</v>
+      </c>
+      <c r="S162" t="s">
+        <v>56</v>
+      </c>
+      <c r="T162" t="s">
+        <v>57</v>
+      </c>
+      <c r="U162" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="163" spans="1:21">
+      <c r="A163" t="s">
+        <v>21</v>
+      </c>
+      <c r="B163" t="s">
+        <v>23</v>
+      </c>
+      <c r="C163" t="s">
+        <v>38</v>
+      </c>
+      <c r="D163" t="s">
+        <v>52</v>
+      </c>
+      <c r="E163" t="s">
+        <v>53</v>
+      </c>
+      <c r="F163">
+        <v>0.854</v>
+      </c>
+      <c r="G163">
+        <v>1.05417543859649</v>
+      </c>
+      <c r="H163">
+        <v>3.28</v>
+      </c>
+      <c r="I163">
+        <v>2.786</v>
+      </c>
+      <c r="L163">
+        <v>0.829</v>
+      </c>
+      <c r="M163">
+        <v>1.6943</v>
+      </c>
+      <c r="N163">
+        <v>2.524</v>
+      </c>
+      <c r="O163">
+        <v>1784937.706</v>
+      </c>
+      <c r="P163">
+        <v>5565566.687</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>54</v>
+      </c>
+      <c r="R163" t="s">
+        <v>55</v>
+      </c>
+      <c r="S163" t="s">
+        <v>56</v>
+      </c>
+      <c r="T163" t="s">
+        <v>57</v>
+      </c>
+      <c r="U163" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="164" spans="1:21">
+      <c r="A164" t="s">
+        <v>21</v>
+      </c>
+      <c r="B164" t="s">
+        <v>24</v>
+      </c>
+      <c r="C164" t="s">
+        <v>39</v>
+      </c>
+      <c r="D164" t="s">
+        <v>52</v>
+      </c>
+      <c r="E164" t="s">
+        <v>53</v>
+      </c>
+      <c r="F164">
+        <v>1900</v>
+      </c>
+      <c r="G164">
+        <v>5066.52397563237</v>
+      </c>
+      <c r="H164">
+        <v>68670</v>
+      </c>
+      <c r="I164">
+        <v>24934.4133</v>
+      </c>
+      <c r="J164">
+        <v>59.6491228070175</v>
+      </c>
+      <c r="K164">
+        <v>71.92982456140351</v>
+      </c>
+      <c r="L164">
+        <v>290</v>
+      </c>
+      <c r="M164">
+        <v>7710</v>
+      </c>
+      <c r="N164">
+        <v>11862</v>
+      </c>
+      <c r="O164">
+        <v>1784937.706</v>
+      </c>
+      <c r="P164">
+        <v>5565566.687</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>54</v>
+      </c>
+      <c r="R164" t="s">
+        <v>55</v>
+      </c>
+      <c r="S164" t="s">
+        <v>56</v>
+      </c>
+      <c r="T164" t="s">
+        <v>57</v>
+      </c>
+      <c r="U164" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21">
+      <c r="A165" t="s">
+        <v>21</v>
+      </c>
+      <c r="B165" t="s">
+        <v>25</v>
+      </c>
+      <c r="C165" t="s">
+        <v>39</v>
+      </c>
+      <c r="D165" t="s">
+        <v>52</v>
+      </c>
+      <c r="E165" t="s">
+        <v>53</v>
+      </c>
+      <c r="F165">
+        <v>1900</v>
+      </c>
+      <c r="G165">
+        <v>5066.52397563237</v>
+      </c>
+      <c r="H165">
+        <v>68670</v>
+      </c>
+      <c r="I165">
+        <v>24934.4133</v>
+      </c>
+      <c r="J165">
+        <v>59.6491228070175</v>
+      </c>
+      <c r="K165">
+        <v>71.92982456140351</v>
+      </c>
+      <c r="L165">
+        <v>290</v>
+      </c>
+      <c r="M165">
+        <v>7710</v>
+      </c>
+      <c r="N165">
+        <v>11862</v>
+      </c>
+      <c r="O165">
+        <v>1784937.706</v>
+      </c>
+      <c r="P165">
+        <v>5565566.687</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>54</v>
+      </c>
+      <c r="R165" t="s">
+        <v>55</v>
+      </c>
+      <c r="S165" t="s">
+        <v>56</v>
+      </c>
+      <c r="T165" t="s">
+        <v>57</v>
+      </c>
+      <c r="U165" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21">
+      <c r="A166" t="s">
+        <v>21</v>
+      </c>
+      <c r="B166" t="s">
+        <v>26</v>
+      </c>
+      <c r="C166" t="s">
+        <v>39</v>
+      </c>
+      <c r="D166" t="s">
+        <v>52</v>
+      </c>
+      <c r="E166" t="s">
+        <v>53</v>
+      </c>
+      <c r="F166">
+        <v>1900</v>
+      </c>
+      <c r="G166">
+        <v>5066.52397563237</v>
+      </c>
+      <c r="H166">
+        <v>68670</v>
+      </c>
+      <c r="I166">
+        <v>24934.4133</v>
+      </c>
+      <c r="J166">
+        <v>59.6491228070175</v>
+      </c>
+      <c r="K166">
+        <v>71.92982456140351</v>
+      </c>
+      <c r="L166">
+        <v>290</v>
+      </c>
+      <c r="M166">
+        <v>7710</v>
+      </c>
+      <c r="N166">
+        <v>11862</v>
+      </c>
+      <c r="O166">
+        <v>1784937.706</v>
+      </c>
+      <c r="P166">
+        <v>5565566.687</v>
+      </c>
+      <c r="Q166" t="s">
+        <v>54</v>
+      </c>
+      <c r="R166" t="s">
+        <v>55</v>
+      </c>
+      <c r="S166" t="s">
+        <v>56</v>
+      </c>
+      <c r="T166" t="s">
+        <v>57</v>
+      </c>
+      <c r="U166" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="167" spans="1:21">
+      <c r="A167" t="s">
+        <v>21</v>
+      </c>
+      <c r="B167" t="s">
+        <v>27</v>
+      </c>
+      <c r="C167" t="s">
+        <v>39</v>
+      </c>
+      <c r="D167" t="s">
+        <v>52</v>
+      </c>
+      <c r="E167" t="s">
+        <v>53</v>
+      </c>
+      <c r="F167">
+        <v>1900</v>
+      </c>
+      <c r="G167">
+        <v>5066.52397563237</v>
+      </c>
+      <c r="H167">
+        <v>68670</v>
+      </c>
+      <c r="I167">
+        <v>24934.4133</v>
+      </c>
+      <c r="J167">
+        <v>59.6491228070175</v>
+      </c>
+      <c r="K167">
+        <v>71.92982456140351</v>
+      </c>
+      <c r="L167">
+        <v>290</v>
+      </c>
+      <c r="M167">
+        <v>7710</v>
+      </c>
+      <c r="N167">
+        <v>11862</v>
+      </c>
+      <c r="O167">
+        <v>1784937.706</v>
+      </c>
+      <c r="P167">
+        <v>5565566.687</v>
+      </c>
+      <c r="Q167" t="s">
+        <v>54</v>
+      </c>
+      <c r="R167" t="s">
+        <v>55</v>
+      </c>
+      <c r="S167" t="s">
+        <v>56</v>
+      </c>
+      <c r="T167" t="s">
+        <v>57</v>
+      </c>
+      <c r="U167" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21">
+      <c r="A168" t="s">
+        <v>21</v>
+      </c>
+      <c r="B168" t="s">
+        <v>28</v>
+      </c>
+      <c r="C168" t="s">
+        <v>38</v>
+      </c>
+      <c r="D168" t="s">
+        <v>52</v>
+      </c>
+      <c r="E168" t="s">
+        <v>53</v>
+      </c>
+      <c r="F168">
+        <v>2.95562</v>
+      </c>
+      <c r="G168">
+        <v>6.62388379840853</v>
+      </c>
+      <c r="H168">
+        <v>37.6</v>
+      </c>
+      <c r="I168">
+        <v>31.73019</v>
+      </c>
+      <c r="L168">
+        <v>1.53819</v>
+      </c>
+      <c r="M168">
+        <v>11.70575</v>
+      </c>
+      <c r="N168">
+        <v>18.47571</v>
+      </c>
+      <c r="O168">
+        <v>1784937.706</v>
+      </c>
+      <c r="P168">
+        <v>5565566.687</v>
+      </c>
+      <c r="Q168" t="s">
+        <v>54</v>
+      </c>
+      <c r="R168" t="s">
+        <v>55</v>
+      </c>
+      <c r="S168" t="s">
+        <v>56</v>
+      </c>
+      <c r="T168" t="s">
+        <v>57</v>
+      </c>
+      <c r="U168" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21">
+      <c r="A169" t="s">
+        <v>21</v>
+      </c>
+      <c r="B169" t="s">
+        <v>29</v>
+      </c>
+      <c r="C169" t="s">
+        <v>38</v>
+      </c>
+      <c r="D169" t="s">
+        <v>52</v>
+      </c>
+      <c r="E169" t="s">
+        <v>53</v>
+      </c>
+      <c r="F169">
+        <v>2.95562</v>
+      </c>
+      <c r="G169">
+        <v>6.62388379840853</v>
+      </c>
+      <c r="H169">
+        <v>37.6</v>
+      </c>
+      <c r="I169">
+        <v>31.73019</v>
+      </c>
+      <c r="L169">
+        <v>1.53819</v>
+      </c>
+      <c r="M169">
+        <v>11.70575</v>
+      </c>
+      <c r="N169">
+        <v>18.47571</v>
+      </c>
+      <c r="O169">
+        <v>1784937.706</v>
+      </c>
+      <c r="P169">
+        <v>5565566.687</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>54</v>
+      </c>
+      <c r="R169" t="s">
+        <v>55</v>
+      </c>
+      <c r="S169" t="s">
+        <v>56</v>
+      </c>
+      <c r="T169" t="s">
+        <v>57</v>
+      </c>
+      <c r="U169" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21">
+      <c r="A170" t="s">
+        <v>21</v>
+      </c>
+      <c r="B170" t="s">
+        <v>30</v>
+      </c>
+      <c r="C170" t="s">
+        <v>40</v>
+      </c>
+      <c r="D170" t="s">
+        <v>52</v>
+      </c>
+      <c r="E170" t="s">
+        <v>53</v>
+      </c>
+      <c r="F170">
+        <v>0.64</v>
+      </c>
+      <c r="G170">
+        <v>0.768473684210526</v>
+      </c>
+      <c r="H170">
+        <v>2.25</v>
+      </c>
+      <c r="I170">
+        <v>2.023</v>
+      </c>
+      <c r="L170">
+        <v>0.4595</v>
+      </c>
+      <c r="M170">
+        <v>1.31</v>
+      </c>
+      <c r="N170">
+        <v>1.6088</v>
+      </c>
+      <c r="O170">
+        <v>1784937.706</v>
+      </c>
+      <c r="P170">
+        <v>5565566.687</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>54</v>
+      </c>
+      <c r="R170" t="s">
+        <v>55</v>
+      </c>
+      <c r="S170" t="s">
+        <v>56</v>
+      </c>
+      <c r="T170" t="s">
+        <v>57</v>
+      </c>
+      <c r="U170" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21">
+      <c r="A171" t="s">
+        <v>21</v>
+      </c>
+      <c r="B171" t="s">
+        <v>31</v>
+      </c>
+      <c r="C171" t="s">
+        <v>41</v>
+      </c>
+      <c r="D171" t="s">
+        <v>52</v>
+      </c>
+      <c r="E171" t="s">
+        <v>53</v>
+      </c>
+      <c r="F171">
+        <v>0.64</v>
+      </c>
+      <c r="G171">
+        <v>0.768473684210526</v>
+      </c>
+      <c r="H171">
+        <v>2.25</v>
+      </c>
+      <c r="I171">
+        <v>2.023</v>
+      </c>
+      <c r="L171">
+        <v>0.4595</v>
+      </c>
+      <c r="M171">
+        <v>1.31</v>
+      </c>
+      <c r="N171">
+        <v>1.6088</v>
+      </c>
+      <c r="O171">
+        <v>1784937.706</v>
+      </c>
+      <c r="P171">
+        <v>5565566.687</v>
+      </c>
+      <c r="Q171" t="s">
+        <v>54</v>
+      </c>
+      <c r="R171" t="s">
+        <v>55</v>
+      </c>
+      <c r="S171" t="s">
+        <v>56</v>
+      </c>
+      <c r="T171" t="s">
+        <v>57</v>
+      </c>
+      <c r="U171" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21">
+      <c r="A172" t="s">
+        <v>21</v>
+      </c>
+      <c r="B172" t="s">
+        <v>32</v>
+      </c>
+      <c r="D172" t="s">
+        <v>52</v>
+      </c>
+      <c r="E172" t="s">
+        <v>53</v>
+      </c>
+      <c r="F172">
+        <v>4.24</v>
+      </c>
+      <c r="G172">
+        <v>5.93366666666667</v>
+      </c>
+      <c r="H172">
+        <v>21.69</v>
+      </c>
+      <c r="I172">
+        <v>18.029</v>
+      </c>
+      <c r="L172">
+        <v>1.719</v>
+      </c>
+      <c r="M172">
+        <v>12.423</v>
+      </c>
+      <c r="N172">
+        <v>16.7714</v>
+      </c>
+      <c r="O172">
+        <v>1784937.706</v>
+      </c>
+      <c r="P172">
+        <v>5565566.687</v>
+      </c>
+      <c r="Q172" t="s">
+        <v>54</v>
+      </c>
+      <c r="R172" t="s">
+        <v>55</v>
+      </c>
+      <c r="S172" t="s">
+        <v>56</v>
+      </c>
+      <c r="T172" t="s">
+        <v>57</v>
+      </c>
+      <c r="U172" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21">
+      <c r="A173" t="s">
+        <v>21</v>
+      </c>
+      <c r="B173" t="s">
+        <v>33</v>
+      </c>
+      <c r="D173" t="s">
+        <v>52</v>
+      </c>
+      <c r="E173" t="s">
+        <v>53</v>
+      </c>
+      <c r="F173">
+        <v>4.24</v>
+      </c>
+      <c r="G173">
+        <v>5.93366666666667</v>
+      </c>
+      <c r="H173">
+        <v>21.69</v>
+      </c>
+      <c r="I173">
+        <v>18.029</v>
+      </c>
+      <c r="L173">
+        <v>1.719</v>
+      </c>
+      <c r="M173">
+        <v>12.423</v>
+      </c>
+      <c r="N173">
+        <v>16.7714</v>
+      </c>
+      <c r="O173">
+        <v>1784937.706</v>
+      </c>
+      <c r="P173">
+        <v>5565566.687</v>
+      </c>
+      <c r="Q173" t="s">
+        <v>54</v>
+      </c>
+      <c r="R173" t="s">
+        <v>55</v>
+      </c>
+      <c r="S173" t="s">
+        <v>56</v>
+      </c>
+      <c r="T173" t="s">
+        <v>57</v>
+      </c>
+      <c r="U173" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21">
+      <c r="A174" t="s">
+        <v>21</v>
+      </c>
+      <c r="B174" t="s">
+        <v>34</v>
+      </c>
+      <c r="D174" t="s">
+        <v>52</v>
+      </c>
+      <c r="E174" t="s">
+        <v>53</v>
+      </c>
+      <c r="F174">
+        <v>12.1</v>
+      </c>
+      <c r="G174">
+        <v>12.4471929824561</v>
+      </c>
+      <c r="H174">
+        <v>23.7</v>
+      </c>
+      <c r="I174">
+        <v>22.995</v>
+      </c>
+      <c r="L174">
+        <v>12.3</v>
+      </c>
+      <c r="M174">
+        <v>18.467</v>
+      </c>
+      <c r="N174">
+        <v>20.558</v>
+      </c>
+      <c r="O174">
+        <v>1784937.706</v>
+      </c>
+      <c r="P174">
+        <v>5565566.687</v>
+      </c>
+      <c r="Q174" t="s">
+        <v>54</v>
+      </c>
+      <c r="R174" t="s">
+        <v>55</v>
+      </c>
+      <c r="S174" t="s">
+        <v>56</v>
+      </c>
+      <c r="T174" t="s">
+        <v>57</v>
+      </c>
+      <c r="U174" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21">
+      <c r="A175" t="s">
+        <v>21</v>
+      </c>
+      <c r="B175" t="s">
+        <v>35</v>
+      </c>
+      <c r="D175" t="s">
+        <v>52</v>
+      </c>
+      <c r="E175" t="s">
+        <v>53</v>
+      </c>
+      <c r="F175">
+        <v>12.1</v>
+      </c>
+      <c r="G175">
+        <v>12.4471929824561</v>
+      </c>
+      <c r="H175">
+        <v>23.7</v>
+      </c>
+      <c r="I175">
+        <v>22.995</v>
+      </c>
+      <c r="L175">
+        <v>12.3</v>
+      </c>
+      <c r="M175">
+        <v>18.467</v>
+      </c>
+      <c r="N175">
+        <v>20.558</v>
+      </c>
+      <c r="O175">
+        <v>1784937.706</v>
+      </c>
+      <c r="P175">
+        <v>5565566.687</v>
+      </c>
+      <c r="Q175" t="s">
+        <v>54</v>
+      </c>
+      <c r="R175" t="s">
+        <v>55</v>
+      </c>
+      <c r="S175" t="s">
+        <v>56</v>
+      </c>
+      <c r="T175" t="s">
+        <v>57</v>
+      </c>
+      <c r="U175" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21">
+      <c r="A176" t="s">
+        <v>21</v>
+      </c>
+      <c r="B176" t="s">
+        <v>36</v>
+      </c>
+      <c r="D176" t="s">
+        <v>52</v>
+      </c>
+      <c r="E176" t="s">
+        <v>53</v>
+      </c>
+      <c r="F176">
+        <v>2.11</v>
+      </c>
+      <c r="G176">
+        <v>2.11849122807018</v>
+      </c>
+      <c r="H176">
+        <v>5.06</v>
+      </c>
+      <c r="I176">
+        <v>4.143</v>
+      </c>
+      <c r="L176">
+        <v>2.5</v>
+      </c>
+      <c r="M176">
+        <v>2.9762</v>
+      </c>
+      <c r="N176">
+        <v>3.6276</v>
+      </c>
+      <c r="O176">
+        <v>1784937.706</v>
+      </c>
+      <c r="P176">
+        <v>5565566.687</v>
+      </c>
+      <c r="Q176" t="s">
+        <v>54</v>
+      </c>
+      <c r="R176" t="s">
+        <v>55</v>
+      </c>
+      <c r="S176" t="s">
+        <v>56</v>
+      </c>
+      <c r="T176" t="s">
+        <v>57</v>
+      </c>
+      <c r="U176" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="177" spans="1:21">
+      <c r="A177" t="s">
+        <v>21</v>
+      </c>
+      <c r="B177" t="s">
+        <v>37</v>
+      </c>
+      <c r="D177" t="s">
+        <v>52</v>
+      </c>
+      <c r="E177" t="s">
+        <v>53</v>
+      </c>
+      <c r="F177">
+        <v>2.11</v>
+      </c>
+      <c r="G177">
+        <v>2.11849122807018</v>
+      </c>
+      <c r="H177">
+        <v>5.06</v>
+      </c>
+      <c r="I177">
+        <v>4.143</v>
+      </c>
+      <c r="L177">
+        <v>2.5</v>
+      </c>
+      <c r="M177">
+        <v>2.9762</v>
+      </c>
+      <c r="N177">
+        <v>3.6276</v>
+      </c>
+      <c r="O177">
+        <v>1784937.706</v>
+      </c>
+      <c r="P177">
+        <v>5565566.687</v>
+      </c>
+      <c r="Q177" t="s">
+        <v>54</v>
+      </c>
+      <c r="R177" t="s">
+        <v>55</v>
+      </c>
+      <c r="S177" t="s">
+        <v>56</v>
+      </c>
+      <c r="T177" t="s">
+        <v>57</v>
+      </c>
+      <c r="U177" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
